--- a/inst/extdata/monthly industry stats.xlsx
+++ b/inst/extdata/monthly industry stats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauri\Documents\RPackages\china_co2\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF96FD8-F7D6-4920-B809-D9EE603726CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B109528-7264-482A-BF82-EA1469EB2A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,15 +506,6 @@
     <t>Time Period</t>
   </si>
   <si>
-    <t>1990-01:2023-08</t>
-  </si>
-  <si>
-    <t>1989-02:2023-08</t>
-  </si>
-  <si>
-    <t>2010-01:2023-08</t>
-  </si>
-  <si>
     <t>2019-09:2023-07</t>
   </si>
   <si>
@@ -533,61 +524,70 @@
     <t>2023-08-11</t>
   </si>
   <si>
-    <t>1989-01:2023-09</t>
-  </si>
-  <si>
     <t>1990-01:2023-09</t>
   </si>
   <si>
     <t>1989-02:2023-09</t>
   </si>
   <si>
-    <t>1997-01:2023-08</t>
-  </si>
-  <si>
-    <t>2015-12:2023-09</t>
-  </si>
-  <si>
-    <t>2009-01:2023-08</t>
-  </si>
-  <si>
-    <t>2016-02:2023-09</t>
-  </si>
-  <si>
-    <t>2001-12:2023-08</t>
-  </si>
-  <si>
-    <t>1992-01:2023-08</t>
-  </si>
-  <si>
-    <t>2000-05:2023-08</t>
-  </si>
-  <si>
-    <t>2015-02:2023-08</t>
-  </si>
-  <si>
     <t>2010-01:2023-09</t>
   </si>
   <si>
-    <t>2009-09:2023-09</t>
+    <t>1989-01:2023-10</t>
   </si>
   <si>
-    <t>2016-05:2023-09</t>
+    <t>1990-01:2023-10</t>
   </si>
   <si>
-    <t>2001-01:2023-09</t>
+    <t>1989-02:2023-10</t>
   </si>
   <si>
-    <t>2019-02:2023-09</t>
+    <t>1997-01:2023-09</t>
   </si>
   <si>
-    <t>2023-10-18</t>
+    <t>2015-12:2023-10</t>
   </si>
   <si>
-    <t>2023-09-18</t>
+    <t>2009-01:2023-09</t>
   </si>
   <si>
-    <t>2023-10-17</t>
+    <t>2016-02:2023-10</t>
+  </si>
+  <si>
+    <t>2001-12:2023-09</t>
+  </si>
+  <si>
+    <t>1992-01:2023-09</t>
+  </si>
+  <si>
+    <t>2000-05:2023-09</t>
+  </si>
+  <si>
+    <t>2015-02:2023-09</t>
+  </si>
+  <si>
+    <t>2010-01:2023-10</t>
+  </si>
+  <si>
+    <t>2009-09:2023-10</t>
+  </si>
+  <si>
+    <t>2016-05:2023-10</t>
+  </si>
+  <si>
+    <t>2001-01:2023-10</t>
+  </si>
+  <si>
+    <t>2019-02:2023-10</t>
+  </si>
+  <si>
+    <t>2023-11-15</t>
+  </si>
+  <si>
+    <t>2023-10-19</t>
+  </si>
+  <si>
+    <t>2023-11-13</t>
   </si>
 </sst>
 </file>
@@ -989,7 +989,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BN421"/>
+  <dimension ref="A1:BN422"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A374" workbookViewId="0">
       <selection activeCell="M421" sqref="M421"/>
@@ -1841,13 +1841,13 @@
         <v>160</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>160</v>
@@ -1862,7 +1862,7 @@
         <v>160</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>160</v>
@@ -1877,13 +1877,13 @@
         <v>160</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="T6" s="4" t="s">
         <v>160</v>
@@ -1898,10 +1898,10 @@
         <v>162</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Z6" s="4" t="s">
         <v>160</v>
@@ -1922,7 +1922,7 @@
         <v>161</v>
       </c>
       <c r="AF6" s="4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AG6" s="4" t="s">
         <v>163</v>
@@ -1931,16 +1931,16 @@
         <v>163</v>
       </c>
       <c r="AI6" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AJ6" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AK6" s="4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AL6" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AM6" s="4" t="s">
         <v>160</v>
@@ -1955,28 +1955,28 @@
         <v>160</v>
       </c>
       <c r="AQ6" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AR6" s="4" t="s">
         <v>159</v>
       </c>
       <c r="AS6" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AT6" s="4" t="s">
         <v>160</v>
       </c>
       <c r="AU6" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AV6" s="4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AW6" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AX6" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AY6" s="4" t="s">
         <v>166</v>
@@ -1991,7 +1991,7 @@
         <v>168</v>
       </c>
       <c r="BC6" s="4" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="BD6" s="4" t="s">
         <v>169</v>
@@ -2018,10 +2018,10 @@
         <v>173</v>
       </c>
       <c r="BL6" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="BM6" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="BN6" s="4" t="s">
         <v>173</v>
@@ -2029,207 +2029,207 @@
     </row>
     <row r="7" spans="1:66">
       <c r="A7" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AF7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AG7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AI7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AJ7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AK7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AL7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AM7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AN7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AO7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AP7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AQ7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AR7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AS7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AT7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AU7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AV7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AW7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AX7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AY7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AZ7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="BA7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="BB7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="BC7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="BD7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="BE7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="BF7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="BG7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="BH7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="BI7" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="BJ7" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="BK7" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="BL7" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="BM7" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="BN7" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:66">
       <c r="A8" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>174</v>
@@ -2418,10 +2418,10 @@
         <v>176</v>
       </c>
       <c r="BL8" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="BM8" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="BN8" s="5" t="s">
         <v>176</v>
@@ -84832,184 +84832,184 @@
         <v>45199</v>
       </c>
       <c r="B421" s="3">
-        <v>344215</v>
+        <v>344214.6</v>
       </c>
       <c r="C421" s="3">
-        <v>36831</v>
+        <v>36831.4</v>
       </c>
       <c r="D421" s="3">
-        <v>66219</v>
+        <v>66219.199999999997</v>
       </c>
       <c r="E421" s="3">
-        <v>0</v>
+        <v>12146.9</v>
       </c>
       <c r="F421" s="3">
-        <v>0</v>
+        <v>16222.8</v>
       </c>
       <c r="G421" s="3">
-        <v>0</v>
+        <v>3709.2</v>
       </c>
       <c r="H421" s="3">
-        <v>7039</v>
+        <v>7038.93138</v>
       </c>
       <c r="I421" s="3">
-        <v>2364</v>
+        <v>2363.5708800000002</v>
       </c>
       <c r="J421" s="3">
-        <v>0</v>
+        <v>8707.4654499999997</v>
       </c>
       <c r="K421" s="3">
-        <v>5230</v>
+        <v>5229.8829599999999</v>
       </c>
       <c r="L421" s="3">
-        <v>0</v>
+        <v>5438.0289300000004</v>
       </c>
       <c r="M421" s="3">
-        <v>67516</v>
+        <v>67515.809580000001</v>
       </c>
       <c r="N421" s="3">
-        <v>79507</v>
+        <v>79507.271429999993</v>
       </c>
       <c r="O421" s="3">
-        <v>102887</v>
+        <v>102887.31757</v>
       </c>
       <c r="P421" s="3">
-        <v>5502</v>
+        <v>5501.6877199999999</v>
       </c>
       <c r="Q421" s="3">
-        <v>0</v>
+        <v>1652.6773000000001</v>
       </c>
       <c r="R421" s="3">
-        <v>0</v>
+        <v>6170.6357600000001</v>
       </c>
       <c r="S421" s="3">
-        <v>0</v>
+        <v>4654.0365899999997</v>
       </c>
       <c r="T421" s="3">
-        <v>149521</v>
+        <v>149520.46562999999</v>
       </c>
       <c r="U421" s="3">
-        <v>71990</v>
+        <v>71989.504329999996</v>
       </c>
       <c r="V421" s="3">
-        <v>45</v>
+        <v>45.255600000000001</v>
       </c>
       <c r="W421" s="3">
         <v>320478</v>
       </c>
       <c r="X421" s="3">
-        <v>0</v>
+        <v>27642.964800000002</v>
       </c>
       <c r="Y421" s="3">
-        <v>0</v>
+        <v>160150.20000000001</v>
       </c>
       <c r="Z421" s="3">
-        <v>14915</v>
+        <v>14915.443579999999</v>
       </c>
       <c r="AA421" s="3">
-        <v>0</v>
+        <v>363333</v>
       </c>
       <c r="AB421" s="3">
-        <v>0</v>
+        <v>517146</v>
       </c>
       <c r="AC421" s="3">
-        <v>0</v>
+        <v>12828</v>
       </c>
       <c r="AD421" s="3">
-        <v>0</v>
+        <v>296829.09999999998</v>
       </c>
       <c r="AE421" s="3">
-        <v>0</v>
+        <v>628632.6</v>
       </c>
       <c r="AF421" s="3">
-        <v>0</v>
+        <v>285541</v>
       </c>
       <c r="AG421" s="3">
-        <v>0</v>
+        <v>82359</v>
       </c>
       <c r="AH421" s="3">
-        <v>0</v>
+        <v>203182</v>
       </c>
       <c r="AI421" s="3">
-        <v>0</v>
+        <v>13.135199999999999</v>
       </c>
       <c r="AJ421" s="3">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="AK421" s="3">
-        <v>0</v>
+        <v>173515.1746</v>
       </c>
       <c r="AL421" s="3">
-        <v>0</v>
+        <v>2319.3617399999998</v>
       </c>
       <c r="AM421" s="3">
-        <v>2090.5</v>
+        <v>2090.4965000000002</v>
       </c>
       <c r="AN421" s="3">
         <v>609</v>
       </c>
       <c r="AO421" s="3">
-        <v>0</v>
+        <v>10442.969999999999</v>
       </c>
       <c r="AP421" s="3">
-        <v>230</v>
+        <v>229.61068</v>
       </c>
       <c r="AQ421" s="3">
-        <v>0</v>
+        <v>1674.0599299999999</v>
       </c>
       <c r="AR421" s="3">
-        <v>24470000</v>
+        <v>24472047.5</v>
       </c>
       <c r="AS421" s="3">
-        <v>0</v>
+        <v>26372.960599999999</v>
       </c>
       <c r="AT421" s="3">
-        <v>25312</v>
+        <v>25311.932499999999</v>
       </c>
       <c r="AU421" s="3">
-        <v>0</v>
+        <v>14423.819100000001</v>
       </c>
       <c r="AV421" s="3">
-        <v>0</v>
+        <v>19366.1947</v>
       </c>
       <c r="AW421" s="3">
-        <v>0</v>
+        <v>7182.3996999999999</v>
       </c>
       <c r="AX421" s="3">
-        <v>0</v>
+        <v>7495.7312000000002</v>
       </c>
       <c r="AY421" s="3">
-        <v>0</v>
+        <v>1880.0891999999999</v>
       </c>
       <c r="AZ421" s="3">
-        <v>0</v>
+        <v>466.48509999999999</v>
       </c>
       <c r="BA421" s="3">
         <v>79202</v>
       </c>
       <c r="BB421" s="3">
-        <v>0</v>
+        <v>116.2</v>
       </c>
       <c r="BC421" s="3">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="BD421" s="3">
-        <v>38428</v>
+        <v>38428.300000000003</v>
       </c>
       <c r="BE421" s="3">
-        <v>46397</v>
+        <v>46396.9</v>
       </c>
       <c r="BF421" s="3">
-        <v>8584</v>
+        <v>8583.9</v>
       </c>
       <c r="BG421" s="3">
-        <v>5837</v>
+        <v>5836.8</v>
       </c>
       <c r="BH421" s="3">
-        <v>2173</v>
+        <v>2172.9054000000001</v>
       </c>
       <c r="BI421" s="3">
-        <v>3228</v>
+        <v>3227.9</v>
       </c>
       <c r="BJ421" s="3">
         <v>169000</v>
@@ -85025,6 +85025,206 @@
       </c>
       <c r="BN421" s="3">
         <v>533700</v>
+      </c>
+    </row>
+    <row r="422" spans="1:66">
+      <c r="A422" s="2">
+        <v>45230</v>
+      </c>
+      <c r="B422" s="3">
+        <v>382922</v>
+      </c>
+      <c r="C422" s="3">
+        <v>41001</v>
+      </c>
+      <c r="D422" s="3">
+        <v>73330</v>
+      </c>
+      <c r="E422" s="3">
+        <v>0</v>
+      </c>
+      <c r="F422" s="3">
+        <v>0</v>
+      </c>
+      <c r="G422" s="3">
+        <v>0</v>
+      </c>
+      <c r="H422" s="3">
+        <v>7860</v>
+      </c>
+      <c r="I422" s="3">
+        <v>2646</v>
+      </c>
+      <c r="J422" s="3">
+        <v>0</v>
+      </c>
+      <c r="K422" s="3">
+        <v>5912</v>
+      </c>
+      <c r="L422" s="3">
+        <v>0</v>
+      </c>
+      <c r="M422" s="3">
+        <v>74475</v>
+      </c>
+      <c r="N422" s="3">
+        <v>87470</v>
+      </c>
+      <c r="O422" s="3">
+        <v>114418</v>
+      </c>
+      <c r="P422" s="3">
+        <v>6158</v>
+      </c>
+      <c r="Q422" s="3">
+        <v>0</v>
+      </c>
+      <c r="R422" s="3">
+        <v>0</v>
+      </c>
+      <c r="S422" s="3">
+        <v>0</v>
+      </c>
+      <c r="T422" s="3">
+        <v>168585</v>
+      </c>
+      <c r="U422" s="3">
+        <v>79592</v>
+      </c>
+      <c r="V422" s="3">
+        <v>51</v>
+      </c>
+      <c r="W422" s="3">
+        <v>352912</v>
+      </c>
+      <c r="X422" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y422" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z422" s="3">
+        <v>17011</v>
+      </c>
+      <c r="AA422" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB422" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC422" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD422" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE422" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF422" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG422" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH422" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI422" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ422" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK422" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL422" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM422" s="3">
+        <v>2366.3000000000002</v>
+      </c>
+      <c r="AN422" s="3">
+        <v>699.8</v>
+      </c>
+      <c r="AO422" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP422" s="3">
+        <v>255</v>
+      </c>
+      <c r="AQ422" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR422" s="3">
+        <v>27650000</v>
+      </c>
+      <c r="AS422" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT422" s="3">
+        <v>28135</v>
+      </c>
+      <c r="AU422" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV422" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW422" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX422" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY422" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ422" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA422" s="3">
+        <v>90643</v>
+      </c>
+      <c r="BB422" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC422" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD422" s="3">
+        <v>43643</v>
+      </c>
+      <c r="BE422" s="3">
+        <v>51077</v>
+      </c>
+      <c r="BF422" s="3">
+        <v>9805</v>
+      </c>
+      <c r="BG422" s="3">
+        <v>6424</v>
+      </c>
+      <c r="BH422" s="3">
+        <v>2436</v>
+      </c>
+      <c r="BI422" s="3">
+        <v>3587</v>
+      </c>
+      <c r="BJ422" s="3">
+        <v>193300</v>
+      </c>
+      <c r="BK422" s="3">
+        <v>416500</v>
+      </c>
+      <c r="BL422" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM422" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN422" s="3">
+        <v>611000</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/monthly industry stats.xlsx
+++ b/inst/extdata/monthly industry stats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0090432A-A31D-440D-940A-3E1B19737E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188FB662-573A-4BA9-98D4-892289A88EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,64 +482,64 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1990-01:2023-10</t>
-  </si>
-  <si>
-    <t>1989-02:2023-10</t>
-  </si>
-  <si>
-    <t>2010-01:2023-10</t>
-  </si>
-  <si>
-    <t>1989-01:2023-11</t>
-  </si>
-  <si>
     <t>1990-01:2023-11</t>
   </si>
   <si>
     <t>1989-02:2023-11</t>
   </si>
   <si>
-    <t>1997-01:2023-10</t>
-  </si>
-  <si>
-    <t>2015-12:2023-11</t>
-  </si>
-  <si>
-    <t>2009-01:2023-10</t>
-  </si>
-  <si>
-    <t>2016-02:2023-11</t>
-  </si>
-  <si>
-    <t>2001-12:2023-10</t>
-  </si>
-  <si>
-    <t>1992-01:2023-10</t>
-  </si>
-  <si>
-    <t>2000-05:2023-10</t>
-  </si>
-  <si>
-    <t>2015-02:2023-10</t>
-  </si>
-  <si>
     <t>2010-01:2023-11</t>
   </si>
   <si>
-    <t>2009-09:2023-11</t>
+    <t>1989-01:2023-12</t>
   </si>
   <si>
-    <t>2016-05:2023-11</t>
+    <t>1990-01:2023-12</t>
   </si>
   <si>
-    <t>2001-01:2023-11</t>
+    <t>1989-02:2023-12</t>
   </si>
   <si>
-    <t>2023-12-15</t>
+    <t>1997-01:2023-11</t>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2015-12:2023-12</t>
+  </si>
+  <si>
+    <t>2009-01:2023-11</t>
+  </si>
+  <si>
+    <t>2016-02:2023-12</t>
+  </si>
+  <si>
+    <t>2001-12:2023-11</t>
+  </si>
+  <si>
+    <t>1992-01:2023-11</t>
+  </si>
+  <si>
+    <t>2000-05:2023-11</t>
+  </si>
+  <si>
+    <t>2015-02:2023-11</t>
+  </si>
+  <si>
+    <t>2010-01:2023-12</t>
+  </si>
+  <si>
+    <t>2009-09:2023-12</t>
+  </si>
+  <si>
+    <t>2016-05:2023-12</t>
+  </si>
+  <si>
+    <t>2001-01:2023-12</t>
+  </si>
+  <si>
+    <t>2024-01-17</t>
+  </si>
+  <si>
+    <t>2023-12-18</t>
   </si>
 </sst>
 </file>
@@ -597,10 +597,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -644,9 +644,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -684,7 +684,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -790,7 +790,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -932,7 +932,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -940,9 +940,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI419"/>
+  <dimension ref="A1:BI420"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -78133,28 +78133,28 @@
         <v>80732</v>
       </c>
       <c r="E419" s="2">
-        <v>0</v>
+        <v>14839.1</v>
       </c>
       <c r="F419" s="2">
-        <v>0</v>
+        <v>19886.3</v>
       </c>
       <c r="G419" s="2">
-        <v>0</v>
+        <v>4572.8</v>
       </c>
       <c r="H419" s="2">
         <v>8680</v>
       </c>
       <c r="I419" s="2">
-        <v>2915</v>
+        <v>2915.1</v>
       </c>
       <c r="J419" s="2">
-        <v>0</v>
+        <v>10817</v>
       </c>
       <c r="K419" s="2">
         <v>6570</v>
       </c>
       <c r="L419" s="2">
-        <v>0</v>
+        <v>6658.8</v>
       </c>
       <c r="M419" s="2">
         <v>81031</v>
@@ -78169,13 +78169,13 @@
         <v>6796</v>
       </c>
       <c r="Q419" s="2">
-        <v>0</v>
+        <v>2021.1</v>
       </c>
       <c r="R419" s="2">
-        <v>0</v>
+        <v>7559.7</v>
       </c>
       <c r="S419" s="2">
-        <v>0</v>
+        <v>5732.1</v>
       </c>
       <c r="T419" s="2">
         <v>186735</v>
@@ -78190,49 +78190,49 @@
         <v>387605</v>
       </c>
       <c r="X419" s="2">
-        <v>0</v>
+        <v>33603.199999999997</v>
       </c>
       <c r="Y419" s="2">
-        <v>0</v>
+        <v>196981.3</v>
       </c>
       <c r="Z419" s="2">
         <v>20118</v>
       </c>
       <c r="AA419" s="2">
-        <v>0</v>
+        <v>457357</v>
       </c>
       <c r="AB419" s="2">
-        <v>0</v>
+        <v>658850</v>
       </c>
       <c r="AC419" s="2">
-        <v>0</v>
+        <v>20680</v>
       </c>
       <c r="AD419" s="2">
-        <v>0</v>
+        <v>361331.20000000001</v>
       </c>
       <c r="AE419" s="2">
-        <v>0</v>
+        <v>760633.4</v>
       </c>
       <c r="AF419" s="2">
-        <v>0</v>
+        <v>337561</v>
       </c>
       <c r="AG419" s="2">
-        <v>0</v>
+        <v>97439</v>
       </c>
       <c r="AH419" s="2">
-        <v>0</v>
+        <v>240122</v>
       </c>
       <c r="AI419" s="2">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AJ419" s="2">
-        <v>0</v>
+        <v>911</v>
       </c>
       <c r="AK419" s="2">
-        <v>0</v>
+        <v>219645.7</v>
       </c>
       <c r="AL419" s="2">
-        <v>0</v>
+        <v>2828.2</v>
       </c>
       <c r="AM419" s="2">
         <v>2666.1</v>
@@ -78241,49 +78241,49 @@
         <v>804.9</v>
       </c>
       <c r="AO419" s="2">
-        <v>0</v>
+        <v>13042.6</v>
       </c>
       <c r="AP419" s="2">
-        <v>283</v>
+        <v>283.2</v>
       </c>
       <c r="AQ419" s="2">
-        <v>0</v>
+        <v>2056.4</v>
       </c>
       <c r="AR419" s="2">
         <v>31140000</v>
       </c>
       <c r="AS419" s="2">
-        <v>0</v>
+        <v>32453.5</v>
       </c>
       <c r="AT419" s="2">
-        <v>31127</v>
+        <v>31126.799999999999</v>
       </c>
       <c r="AU419" s="2">
-        <v>0</v>
+        <v>17650.900000000001</v>
       </c>
       <c r="AV419" s="2">
-        <v>0</v>
+        <v>22334.1</v>
       </c>
       <c r="AW419" s="2">
-        <v>0</v>
+        <v>8815.4</v>
       </c>
       <c r="AX419" s="2">
-        <v>0</v>
+        <v>9535.7999999999993</v>
       </c>
       <c r="AY419" s="2">
-        <v>0</v>
+        <v>2327.5</v>
       </c>
       <c r="AZ419" s="2">
-        <v>0</v>
+        <v>572.1</v>
       </c>
       <c r="BA419" s="2">
         <v>102779</v>
       </c>
       <c r="BB419" s="2">
-        <v>0</v>
+        <v>141.69999999999999</v>
       </c>
       <c r="BC419" s="2">
-        <v>0</v>
+        <v>1096</v>
       </c>
       <c r="BD419" s="2">
         <v>49035</v>
@@ -78298,10 +78298,195 @@
         <v>7252</v>
       </c>
       <c r="BH419" s="2">
-        <v>2714</v>
+        <v>2713.9776000000002</v>
       </c>
       <c r="BI419" s="2">
         <v>3952</v>
+      </c>
+    </row>
+    <row r="420" spans="1:61">
+      <c r="A420" s="3">
+        <v>45291</v>
+      </c>
+      <c r="B420" s="2">
+        <v>465838.0319</v>
+      </c>
+      <c r="C420" s="2">
+        <v>49259.997600000002</v>
+      </c>
+      <c r="D420" s="2">
+        <v>89090.784299999999</v>
+      </c>
+      <c r="E420" s="2">
+        <v>0</v>
+      </c>
+      <c r="F420" s="2">
+        <v>0</v>
+      </c>
+      <c r="G420" s="2">
+        <v>0</v>
+      </c>
+      <c r="H420" s="2">
+        <v>9580</v>
+      </c>
+      <c r="I420" s="2">
+        <v>3190</v>
+      </c>
+      <c r="J420" s="2">
+        <v>0</v>
+      </c>
+      <c r="K420" s="2">
+        <v>7127</v>
+      </c>
+      <c r="L420" s="2">
+        <v>0</v>
+      </c>
+      <c r="M420" s="2">
+        <v>87101</v>
+      </c>
+      <c r="N420" s="2">
+        <v>101908</v>
+      </c>
+      <c r="O420" s="2">
+        <v>136268</v>
+      </c>
+      <c r="P420" s="2">
+        <v>7470</v>
+      </c>
+      <c r="Q420" s="2">
+        <v>0</v>
+      </c>
+      <c r="R420" s="2">
+        <v>0</v>
+      </c>
+      <c r="S420" s="2">
+        <v>0</v>
+      </c>
+      <c r="T420" s="2">
+        <v>202293</v>
+      </c>
+      <c r="U420" s="2">
+        <v>96942</v>
+      </c>
+      <c r="V420" s="2">
+        <v>61</v>
+      </c>
+      <c r="W420" s="2">
+        <v>429534</v>
+      </c>
+      <c r="X420" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y420" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z420" s="2">
+        <v>23443</v>
+      </c>
+      <c r="AA420" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB420" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC420" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD420" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE420" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF420" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG420" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH420" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI420" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ420" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK420" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL420" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM420" s="2">
+        <v>3011.3</v>
+      </c>
+      <c r="AN420" s="2">
+        <v>944.3</v>
+      </c>
+      <c r="AO420" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP420" s="2">
+        <v>295</v>
+      </c>
+      <c r="AQ420" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR420" s="2">
+        <v>35140000</v>
+      </c>
+      <c r="AS420" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT420" s="2">
+        <v>33057</v>
+      </c>
+      <c r="AU420" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV420" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW420" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX420" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY420" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ420" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA420" s="2">
+        <v>114463</v>
+      </c>
+      <c r="BB420" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC420" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD420" s="2">
+        <v>54116</v>
+      </c>
+      <c r="BE420" s="2">
+        <v>62318.038800000002</v>
+      </c>
+      <c r="BF420" s="2">
+        <v>11408.859899999999</v>
+      </c>
+      <c r="BG420" s="2">
+        <v>8090.4933000000001</v>
+      </c>
+      <c r="BH420" s="2">
+        <v>2939.6819</v>
+      </c>
+      <c r="BI420" s="2">
+        <v>4332.5554000000002</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/monthly industry stats.xlsx
+++ b/inst/extdata/monthly industry stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188FB662-573A-4BA9-98D4-892289A88EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA09D908-C4A2-4E0C-90EC-18164C148D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3930" yWindow="3930" windowWidth="21600" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_ Raw Coal_ YTD" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="162">
   <si>
     <t>Name</t>
   </si>
@@ -482,64 +482,67 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1990-01:2023-11</t>
-  </si>
-  <si>
-    <t>1989-02:2023-11</t>
-  </si>
-  <si>
-    <t>2010-01:2023-11</t>
-  </si>
-  <si>
-    <t>1989-01:2023-12</t>
-  </si>
-  <si>
     <t>1990-01:2023-12</t>
   </si>
   <si>
     <t>1989-02:2023-12</t>
   </si>
   <si>
-    <t>1997-01:2023-11</t>
-  </si>
-  <si>
-    <t>2015-12:2023-12</t>
-  </si>
-  <si>
-    <t>2009-01:2023-11</t>
-  </si>
-  <si>
-    <t>2016-02:2023-12</t>
-  </si>
-  <si>
-    <t>2001-12:2023-11</t>
-  </si>
-  <si>
-    <t>1992-01:2023-11</t>
-  </si>
-  <si>
-    <t>2000-05:2023-11</t>
-  </si>
-  <si>
-    <t>2015-02:2023-11</t>
-  </si>
-  <si>
     <t>2010-01:2023-12</t>
   </si>
   <si>
-    <t>2009-09:2023-12</t>
+    <t>1989-01:2024-02</t>
   </si>
   <si>
-    <t>2016-05:2023-12</t>
+    <t>1990-01:2024-02</t>
   </si>
   <si>
-    <t>2001-01:2023-12</t>
+    <t>1989-02:2024-02</t>
   </si>
   <si>
-    <t>2024-01-17</t>
+    <t>1997-01:2023-12</t>
   </si>
   <si>
-    <t>2023-12-18</t>
+    <t>2015-12:2024-02</t>
+  </si>
+  <si>
+    <t>2009-01:2023-12</t>
+  </si>
+  <si>
+    <t>2016-02:2024-02</t>
+  </si>
+  <si>
+    <t>2001-12:2023-12</t>
+  </si>
+  <si>
+    <t>1992-01:2023-12</t>
+  </si>
+  <si>
+    <t>2000-05:2023-12</t>
+  </si>
+  <si>
+    <t>2015-02:2023-12</t>
+  </si>
+  <si>
+    <t>2010-01:2024-02</t>
+  </si>
+  <si>
+    <t>2009-09:2024-02</t>
+  </si>
+  <si>
+    <t>2016-05:2024-02</t>
+  </si>
+  <si>
+    <t>2001-01:2024-02</t>
+  </si>
+  <si>
+    <t>2024-03-18</t>
+  </si>
+  <si>
+    <t>2024-01-18</t>
+  </si>
+  <si>
+    <t>2024-01-19</t>
   </si>
 </sst>
 </file>
@@ -597,10 +600,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -940,9 +943,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI420"/>
+  <dimension ref="A1:BI421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -963,6 +966,7 @@
     <col min="41" max="41" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="45" max="48" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="56" max="58" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -2113,13 +2117,13 @@
         <v>159</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>159</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>159</v>
@@ -2134,13 +2138,13 @@
         <v>159</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T8" s="5" t="s">
         <v>159</v>
@@ -2155,49 +2159,49 @@
         <v>159</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Z8" s="5" t="s">
         <v>159</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AD8" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AE8" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF8" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG8" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AH8" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AI8" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ8" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK8" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL8" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM8" s="5" t="s">
         <v>159</v>
@@ -2206,49 +2210,49 @@
         <v>159</v>
       </c>
       <c r="AO8" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AP8" s="5" t="s">
         <v>159</v>
       </c>
       <c r="AQ8" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AR8" s="5" t="s">
         <v>159</v>
       </c>
       <c r="AS8" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AT8" s="5" t="s">
         <v>159</v>
       </c>
       <c r="AU8" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AV8" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AW8" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AX8" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AY8" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AZ8" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="BA8" s="5" t="s">
         <v>159</v>
       </c>
       <c r="BB8" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="BC8" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="BD8" s="5" t="s">
         <v>159</v>
@@ -78318,160 +78322,160 @@
         <v>89090.784299999999</v>
       </c>
       <c r="E420" s="2">
-        <v>0</v>
+        <v>16138.4</v>
       </c>
       <c r="F420" s="2">
-        <v>0</v>
+        <v>21729</v>
       </c>
       <c r="G420" s="2">
-        <v>0</v>
+        <v>4968.3999999999996</v>
       </c>
       <c r="H420" s="2">
-        <v>9580</v>
+        <v>9580.0436599999994</v>
       </c>
       <c r="I420" s="2">
-        <v>3190</v>
+        <v>3189.8843700000002</v>
       </c>
       <c r="J420" s="2">
-        <v>0</v>
+        <v>11901.84203</v>
       </c>
       <c r="K420" s="2">
-        <v>7127</v>
+        <v>7127.0057399999996</v>
       </c>
       <c r="L420" s="2">
-        <v>0</v>
+        <v>7488.5144300000002</v>
       </c>
       <c r="M420" s="2">
-        <v>87101</v>
+        <v>87101.302290000007</v>
       </c>
       <c r="N420" s="2">
-        <v>101908</v>
+        <v>101908.12721999999</v>
       </c>
       <c r="O420" s="2">
-        <v>136268</v>
+        <v>136268.17298999999</v>
       </c>
       <c r="P420" s="2">
-        <v>7470</v>
+        <v>7469.8144700000003</v>
       </c>
       <c r="Q420" s="2">
-        <v>0</v>
+        <v>2216.96738</v>
       </c>
       <c r="R420" s="2">
-        <v>0</v>
+        <v>8244.1211500000009</v>
       </c>
       <c r="S420" s="2">
-        <v>0</v>
+        <v>6303.3786799999998</v>
       </c>
       <c r="T420" s="2">
-        <v>202293</v>
+        <v>202292.98824000001</v>
       </c>
       <c r="U420" s="2">
-        <v>96942</v>
+        <v>96941.795719999995</v>
       </c>
       <c r="V420" s="2">
-        <v>61</v>
+        <v>61.25</v>
       </c>
       <c r="W420" s="2">
         <v>429534</v>
       </c>
       <c r="X420" s="2">
-        <v>0</v>
+        <v>36812.473480000001</v>
       </c>
       <c r="Y420" s="2">
-        <v>0</v>
+        <v>225479.6</v>
       </c>
       <c r="Z420" s="2">
-        <v>23443</v>
+        <v>23442.67295</v>
       </c>
       <c r="AA420" s="2">
-        <v>0</v>
+        <v>474686</v>
       </c>
       <c r="AB420" s="2">
-        <v>0</v>
+        <v>733525</v>
       </c>
       <c r="AC420" s="2">
-        <v>0</v>
+        <v>24193</v>
       </c>
       <c r="AD420" s="2">
-        <v>0</v>
+        <v>396463</v>
       </c>
       <c r="AE420" s="2">
-        <v>0</v>
+        <v>833423.4</v>
       </c>
       <c r="AF420" s="2">
-        <v>0</v>
+        <v>380483</v>
       </c>
       <c r="AG420" s="2">
-        <v>0</v>
+        <v>107297</v>
       </c>
       <c r="AH420" s="2">
-        <v>0</v>
+        <v>273186</v>
       </c>
       <c r="AI420" s="2">
-        <v>0</v>
+        <v>16.9041</v>
       </c>
       <c r="AJ420" s="2">
-        <v>0</v>
+        <v>1151</v>
       </c>
       <c r="AK420" s="2">
-        <v>0</v>
+        <v>240665.14911999999</v>
       </c>
       <c r="AL420" s="2">
-        <v>0</v>
+        <v>3022.3094700000001</v>
       </c>
       <c r="AM420" s="2">
-        <v>3011.3</v>
+        <v>3011.3186000000001</v>
       </c>
       <c r="AN420" s="2">
         <v>944.3</v>
       </c>
       <c r="AO420" s="2">
-        <v>0</v>
+        <v>14405.53888</v>
       </c>
       <c r="AP420" s="2">
-        <v>295</v>
+        <v>294.87533999999999</v>
       </c>
       <c r="AQ420" s="2">
-        <v>0</v>
+        <v>2234.1925500000002</v>
       </c>
       <c r="AR420" s="2">
-        <v>35140000</v>
+        <v>35143598.700000003</v>
       </c>
       <c r="AS420" s="2">
-        <v>0</v>
+        <v>34551.728199999998</v>
       </c>
       <c r="AT420" s="2">
-        <v>33057</v>
+        <v>33056.923199999997</v>
       </c>
       <c r="AU420" s="2">
-        <v>0</v>
+        <v>19339.614399999999</v>
       </c>
       <c r="AV420" s="2">
-        <v>0</v>
+        <v>24487.0209</v>
       </c>
       <c r="AW420" s="2">
-        <v>0</v>
+        <v>9632.3083999999999</v>
       </c>
       <c r="AX420" s="2">
-        <v>0</v>
+        <v>10458.316999999999</v>
       </c>
       <c r="AY420" s="2">
-        <v>0</v>
+        <v>2596.5263</v>
       </c>
       <c r="AZ420" s="2">
-        <v>0</v>
+        <v>653.90020000000004</v>
       </c>
       <c r="BA420" s="2">
         <v>114463</v>
       </c>
       <c r="BB420" s="2">
-        <v>0</v>
+        <v>155.69999999999999</v>
       </c>
       <c r="BC420" s="2">
-        <v>0</v>
+        <v>1240</v>
       </c>
       <c r="BD420" s="2">
-        <v>54116</v>
+        <v>54115.8</v>
       </c>
       <c r="BE420" s="2">
         <v>62318.038800000002</v>
@@ -78487,6 +78491,191 @@
       </c>
       <c r="BI420" s="2">
         <v>4332.5554000000002</v>
+      </c>
+    </row>
+    <row r="421" spans="1:61">
+      <c r="A421" s="3">
+        <v>45351</v>
+      </c>
+      <c r="B421" s="2">
+        <v>70527</v>
+      </c>
+      <c r="C421" s="2">
+        <v>8039</v>
+      </c>
+      <c r="D421" s="2">
+        <v>14870</v>
+      </c>
+      <c r="E421" s="2">
+        <v>0</v>
+      </c>
+      <c r="F421" s="2">
+        <v>0</v>
+      </c>
+      <c r="G421" s="2">
+        <v>0</v>
+      </c>
+      <c r="H421" s="2">
+        <v>1689</v>
+      </c>
+      <c r="I421" s="2">
+        <v>515</v>
+      </c>
+      <c r="J421" s="2">
+        <v>0</v>
+      </c>
+      <c r="K421" s="2">
+        <v>1168</v>
+      </c>
+      <c r="L421" s="2">
+        <v>0</v>
+      </c>
+      <c r="M421" s="2">
+        <v>14073</v>
+      </c>
+      <c r="N421" s="2">
+        <v>16796</v>
+      </c>
+      <c r="O421" s="2">
+        <v>21343</v>
+      </c>
+      <c r="P421" s="2">
+        <v>1277</v>
+      </c>
+      <c r="Q421" s="2">
+        <v>0</v>
+      </c>
+      <c r="R421" s="2">
+        <v>0</v>
+      </c>
+      <c r="S421" s="2">
+        <v>0</v>
+      </c>
+      <c r="T421" s="2">
+        <v>18280</v>
+      </c>
+      <c r="U421" s="2">
+        <v>16194</v>
+      </c>
+      <c r="V421" s="2">
+        <v>9</v>
+      </c>
+      <c r="W421" s="2">
+        <v>75992</v>
+      </c>
+      <c r="X421" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y421" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z421" s="2">
+        <v>2455</v>
+      </c>
+      <c r="AA421" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB421" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC421" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD421" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE421" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF421" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG421" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH421" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI421" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ421" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK421" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL421" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM421" s="2">
+        <v>383.5</v>
+      </c>
+      <c r="AN421" s="2">
+        <v>118.9</v>
+      </c>
+      <c r="AO421" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP421" s="2">
+        <v>48</v>
+      </c>
+      <c r="AQ421" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR421" s="2">
+        <v>7040000</v>
+      </c>
+      <c r="AS421" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT421" s="2">
+        <v>4381</v>
+      </c>
+      <c r="AU421" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV421" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW421" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX421" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY421" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ421" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA421" s="2">
+        <v>17240</v>
+      </c>
+      <c r="BB421" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC421" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD421" s="2">
+        <v>6993</v>
+      </c>
+      <c r="BE421" s="2">
+        <v>10802</v>
+      </c>
+      <c r="BF421" s="2">
+        <v>1390</v>
+      </c>
+      <c r="BG421" s="2">
+        <v>1497</v>
+      </c>
+      <c r="BH421" s="2">
+        <v>490</v>
+      </c>
+      <c r="BI421" s="2">
+        <v>691</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/monthly industry stats.xlsx
+++ b/inst/extdata/monthly industry stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA09D908-C4A2-4E0C-90EC-18164C148D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92B9FE2-F6BA-4D26-A9EF-2928AD475014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="3930" windowWidth="21600" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_ Raw Coal_ YTD" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="161">
   <si>
     <t>Name</t>
   </si>
@@ -482,67 +482,64 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1990-01:2023-12</t>
-  </si>
-  <si>
-    <t>1989-02:2023-12</t>
-  </si>
-  <si>
-    <t>2010-01:2023-12</t>
-  </si>
-  <si>
-    <t>1989-01:2024-02</t>
-  </si>
-  <si>
     <t>1990-01:2024-02</t>
   </si>
   <si>
     <t>1989-02:2024-02</t>
   </si>
   <si>
-    <t>1997-01:2023-12</t>
-  </si>
-  <si>
-    <t>2015-12:2024-02</t>
-  </si>
-  <si>
-    <t>2009-01:2023-12</t>
-  </si>
-  <si>
-    <t>2016-02:2024-02</t>
-  </si>
-  <si>
-    <t>2001-12:2023-12</t>
-  </si>
-  <si>
-    <t>1992-01:2023-12</t>
-  </si>
-  <si>
-    <t>2000-05:2023-12</t>
-  </si>
-  <si>
-    <t>2015-02:2023-12</t>
-  </si>
-  <si>
     <t>2010-01:2024-02</t>
   </si>
   <si>
-    <t>2009-09:2024-02</t>
+    <t>1989-01:2024-03</t>
   </si>
   <si>
-    <t>2016-05:2024-02</t>
+    <t>1990-01:2024-03</t>
   </si>
   <si>
-    <t>2001-01:2024-02</t>
+    <t>1989-02:2024-03</t>
   </si>
   <si>
-    <t>2024-03-18</t>
+    <t>1997-01:2024-02</t>
   </si>
   <si>
-    <t>2024-01-18</t>
+    <t>2015-12:2024-03</t>
   </si>
   <si>
-    <t>2024-01-19</t>
+    <t>2009-01:2024-02</t>
+  </si>
+  <si>
+    <t>2016-02:2024-03</t>
+  </si>
+  <si>
+    <t>2001-12:2024-02</t>
+  </si>
+  <si>
+    <t>1992-01:2024-02</t>
+  </si>
+  <si>
+    <t>2000-05:2024-02</t>
+  </si>
+  <si>
+    <t>2015-02:2024-02</t>
+  </si>
+  <si>
+    <t>2010-01:2024-03</t>
+  </si>
+  <si>
+    <t>2009-09:2024-03</t>
+  </si>
+  <si>
+    <t>2016-05:2024-03</t>
+  </si>
+  <si>
+    <t>2001-01:2024-03</t>
+  </si>
+  <si>
+    <t>2024-04-16</t>
+  </si>
+  <si>
+    <t>2024-03-20</t>
   </si>
 </sst>
 </file>
@@ -943,9 +940,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI421"/>
+  <dimension ref="A1:BI422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
+      <selection activeCell="AW2" sqref="AW2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2117,13 +2116,13 @@
         <v>159</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>159</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>159</v>
@@ -2138,13 +2137,13 @@
         <v>159</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T8" s="5" t="s">
         <v>159</v>
@@ -2159,49 +2158,49 @@
         <v>159</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z8" s="5" t="s">
         <v>159</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AD8" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AE8" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AF8" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG8" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AH8" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AI8" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AJ8" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AK8" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AL8" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AM8" s="5" t="s">
         <v>159</v>
@@ -2210,49 +2209,49 @@
         <v>159</v>
       </c>
       <c r="AO8" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AP8" s="5" t="s">
         <v>159</v>
       </c>
       <c r="AQ8" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AR8" s="5" t="s">
         <v>159</v>
       </c>
       <c r="AS8" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AT8" s="5" t="s">
         <v>159</v>
       </c>
       <c r="AU8" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AV8" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AW8" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AX8" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AY8" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AZ8" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA8" s="5" t="s">
         <v>159</v>
       </c>
       <c r="BB8" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BC8" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BD8" s="5" t="s">
         <v>159</v>
@@ -78498,184 +78497,369 @@
         <v>45351</v>
       </c>
       <c r="B421" s="2">
-        <v>70527</v>
+        <v>70526.7</v>
       </c>
       <c r="C421" s="2">
-        <v>8039</v>
+        <v>8039.5</v>
       </c>
       <c r="D421" s="2">
-        <v>14870</v>
+        <v>14870.3</v>
       </c>
       <c r="E421" s="2">
-        <v>0</v>
+        <v>2749.6</v>
       </c>
       <c r="F421" s="2">
-        <v>0</v>
+        <v>3331.4</v>
       </c>
       <c r="G421" s="2">
-        <v>0</v>
+        <v>947.9</v>
       </c>
       <c r="H421" s="2">
-        <v>1689</v>
+        <v>1688.92722</v>
       </c>
       <c r="I421" s="2">
-        <v>515</v>
+        <v>515.39385000000004</v>
       </c>
       <c r="J421" s="2">
-        <v>0</v>
+        <v>1931.7199000000001</v>
       </c>
       <c r="K421" s="2">
-        <v>1168</v>
+        <v>1167.7523200000001</v>
       </c>
       <c r="L421" s="2">
-        <v>0</v>
+        <v>1188.91623</v>
       </c>
       <c r="M421" s="2">
-        <v>14073</v>
+        <v>14073.41229</v>
       </c>
       <c r="N421" s="2">
-        <v>16796</v>
+        <v>16796.173510000001</v>
       </c>
       <c r="O421" s="2">
-        <v>21343</v>
+        <v>21342.784</v>
       </c>
       <c r="P421" s="2">
-        <v>1277</v>
+        <v>1276.87417</v>
       </c>
       <c r="Q421" s="2">
-        <v>0</v>
+        <v>287.09021999999999</v>
       </c>
       <c r="R421" s="2">
-        <v>0</v>
+        <v>1339.61617</v>
       </c>
       <c r="S421" s="2">
-        <v>0</v>
+        <v>976.49303999999995</v>
       </c>
       <c r="T421" s="2">
-        <v>18280</v>
+        <v>18280.445309999999</v>
       </c>
       <c r="U421" s="2">
-        <v>16194</v>
+        <v>16193.819229999999</v>
       </c>
       <c r="V421" s="2">
-        <v>9</v>
+        <v>9.2308000000000003</v>
       </c>
       <c r="W421" s="2">
         <v>75992</v>
       </c>
       <c r="X421" s="2">
-        <v>0</v>
+        <v>4472.1284599999999</v>
       </c>
       <c r="Y421" s="2">
-        <v>0</v>
+        <v>38953.1</v>
       </c>
       <c r="Z421" s="2">
-        <v>2455</v>
+        <v>2455.2997099999998</v>
       </c>
       <c r="AA421" s="2">
-        <v>0</v>
+        <v>58204</v>
       </c>
       <c r="AB421" s="2">
-        <v>0</v>
+        <v>141245</v>
       </c>
       <c r="AC421" s="2">
-        <v>0</v>
+        <v>6882</v>
       </c>
       <c r="AD421" s="2">
-        <v>0</v>
+        <v>54921.8</v>
       </c>
       <c r="AE421" s="2">
-        <v>0</v>
+        <v>185939.7</v>
       </c>
       <c r="AF421" s="2">
-        <v>0</v>
+        <v>70725</v>
       </c>
       <c r="AG421" s="2">
-        <v>0</v>
+        <v>20743</v>
       </c>
       <c r="AH421" s="2">
-        <v>0</v>
+        <v>49982</v>
       </c>
       <c r="AI421" s="2">
-        <v>0</v>
+        <v>2.7035</v>
       </c>
       <c r="AJ421" s="2">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AK421" s="2">
-        <v>0</v>
+        <v>34272.504430000001</v>
       </c>
       <c r="AL421" s="2">
-        <v>0</v>
+        <v>593.04486999999995</v>
       </c>
       <c r="AM421" s="2">
-        <v>383.5</v>
+        <v>383.52089999999998</v>
       </c>
       <c r="AN421" s="2">
         <v>118.9</v>
       </c>
       <c r="AO421" s="2">
-        <v>0</v>
+        <v>2241.5579400000001</v>
       </c>
       <c r="AP421" s="2">
-        <v>48</v>
+        <v>48.10483</v>
       </c>
       <c r="AQ421" s="2">
-        <v>0</v>
+        <v>336.37664999999998</v>
       </c>
       <c r="AR421" s="2">
-        <v>7040000</v>
+        <v>7041511.7999999998</v>
       </c>
       <c r="AS421" s="2">
-        <v>0</v>
+        <v>4544.55</v>
       </c>
       <c r="AT421" s="2">
-        <v>4381</v>
+        <v>4380.9040000000005</v>
       </c>
       <c r="AU421" s="2">
-        <v>0</v>
+        <v>2533.0846999999999</v>
       </c>
       <c r="AV421" s="2">
-        <v>0</v>
+        <v>3763.5996</v>
       </c>
       <c r="AW421" s="2">
-        <v>0</v>
+        <v>1374.4124999999999</v>
       </c>
       <c r="AX421" s="2">
-        <v>0</v>
+        <v>1622.5148999999999</v>
       </c>
       <c r="AY421" s="2">
-        <v>0</v>
+        <v>427.5401</v>
       </c>
       <c r="AZ421" s="2">
-        <v>0</v>
+        <v>61.782600000000002</v>
       </c>
       <c r="BA421" s="2">
         <v>17240</v>
       </c>
       <c r="BB421" s="2">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="BC421" s="2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="BD421" s="2">
-        <v>6993</v>
+        <v>6992.6</v>
       </c>
       <c r="BE421" s="2">
-        <v>10802</v>
+        <v>10801.9</v>
       </c>
       <c r="BF421" s="2">
-        <v>1390</v>
+        <v>1389.6</v>
       </c>
       <c r="BG421" s="2">
-        <v>1497</v>
+        <v>1497.3</v>
       </c>
       <c r="BH421" s="2">
-        <v>490</v>
+        <v>490.27530000000002</v>
       </c>
       <c r="BI421" s="2">
-        <v>691</v>
+        <v>691.1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:61">
+      <c r="A422" s="3">
+        <v>45382</v>
+      </c>
+      <c r="B422" s="2">
+        <v>110556</v>
+      </c>
+      <c r="C422" s="2">
+        <v>11989</v>
+      </c>
+      <c r="D422" s="2">
+        <v>22372</v>
+      </c>
+      <c r="E422" s="2">
+        <v>0</v>
+      </c>
+      <c r="F422" s="2">
+        <v>0</v>
+      </c>
+      <c r="G422" s="2">
+        <v>0</v>
+      </c>
+      <c r="H422" s="2">
+        <v>2585</v>
+      </c>
+      <c r="I422" s="2">
+        <v>799</v>
+      </c>
+      <c r="J422" s="2">
+        <v>0</v>
+      </c>
+      <c r="K422" s="2">
+        <v>1854</v>
+      </c>
+      <c r="L422" s="2">
+        <v>0</v>
+      </c>
+      <c r="M422" s="2">
+        <v>21339</v>
+      </c>
+      <c r="N422" s="2">
+        <v>25655</v>
+      </c>
+      <c r="O422" s="2">
+        <v>33603</v>
+      </c>
+      <c r="P422" s="2">
+        <v>1945</v>
+      </c>
+      <c r="Q422" s="2">
+        <v>0</v>
+      </c>
+      <c r="R422" s="2">
+        <v>0</v>
+      </c>
+      <c r="S422" s="2">
+        <v>0</v>
+      </c>
+      <c r="T422" s="2">
+        <v>33684</v>
+      </c>
+      <c r="U422" s="2">
+        <v>24805</v>
+      </c>
+      <c r="V422" s="2">
+        <v>15</v>
+      </c>
+      <c r="W422" s="2">
+        <v>120294</v>
+      </c>
+      <c r="X422" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y422" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z422" s="2">
+        <v>4180</v>
+      </c>
+      <c r="AA422" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB422" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC422" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD422" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE422" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF422" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG422" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH422" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI422" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ422" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK422" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL422" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM422" s="2">
+        <v>663.1</v>
+      </c>
+      <c r="AN422" s="2">
+        <v>207.6</v>
+      </c>
+      <c r="AO422" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP422" s="2">
+        <v>77</v>
+      </c>
+      <c r="AQ422" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR422" s="2">
+        <v>9810000</v>
+      </c>
+      <c r="AS422" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT422" s="2">
+        <v>7404</v>
+      </c>
+      <c r="AU422" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV422" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW422" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX422" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY422" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ422" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA422" s="2">
+        <v>27648</v>
+      </c>
+      <c r="BB422" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC422" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD422" s="2">
+        <v>12588</v>
+      </c>
+      <c r="BE422" s="2">
+        <v>16028</v>
+      </c>
+      <c r="BF422" s="2">
+        <v>2102</v>
+      </c>
+      <c r="BG422" s="2">
+        <v>2419</v>
+      </c>
+      <c r="BH422" s="2">
+        <v>783</v>
+      </c>
+      <c r="BI422" s="2">
+        <v>1039</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/monthly industry stats.xlsx
+++ b/inst/extdata/monthly industry stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92B9FE2-F6BA-4D26-A9EF-2928AD475014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A569B41-7C14-4147-ACE5-A2150BDF7191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_ Raw Coal_ YTD" sheetId="1" r:id="rId1"/>
@@ -482,64 +482,64 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1990-01:2024-02</t>
-  </si>
-  <si>
-    <t>1989-02:2024-02</t>
-  </si>
-  <si>
-    <t>2010-01:2024-02</t>
-  </si>
-  <si>
-    <t>1989-01:2024-03</t>
-  </si>
-  <si>
     <t>1990-01:2024-03</t>
   </si>
   <si>
     <t>1989-02:2024-03</t>
   </si>
   <si>
-    <t>1997-01:2024-02</t>
-  </si>
-  <si>
-    <t>2015-12:2024-03</t>
-  </si>
-  <si>
-    <t>2009-01:2024-02</t>
-  </si>
-  <si>
-    <t>2016-02:2024-03</t>
-  </si>
-  <si>
-    <t>2001-12:2024-02</t>
-  </si>
-  <si>
-    <t>1992-01:2024-02</t>
-  </si>
-  <si>
-    <t>2000-05:2024-02</t>
-  </si>
-  <si>
-    <t>2015-02:2024-02</t>
-  </si>
-  <si>
     <t>2010-01:2024-03</t>
   </si>
   <si>
-    <t>2009-09:2024-03</t>
+    <t>1989-01:2024-04</t>
   </si>
   <si>
-    <t>2016-05:2024-03</t>
+    <t>1990-01:2024-04</t>
   </si>
   <si>
-    <t>2001-01:2024-03</t>
+    <t>1989-02:2024-04</t>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>1997-01:2024-03</t>
   </si>
   <si>
-    <t>2024-03-20</t>
+    <t>2015-12:2024-04</t>
+  </si>
+  <si>
+    <t>2009-01:2024-03</t>
+  </si>
+  <si>
+    <t>2016-02:2024-04</t>
+  </si>
+  <si>
+    <t>2001-12:2024-03</t>
+  </si>
+  <si>
+    <t>1992-01:2024-03</t>
+  </si>
+  <si>
+    <t>2000-05:2024-03</t>
+  </si>
+  <si>
+    <t>2015-02:2024-03</t>
+  </si>
+  <si>
+    <t>2010-01:2024-04</t>
+  </si>
+  <si>
+    <t>2009-09:2024-04</t>
+  </si>
+  <si>
+    <t>2016-05:2024-04</t>
+  </si>
+  <si>
+    <t>2001-01:2024-04</t>
+  </si>
+  <si>
+    <t>2024-05-17</t>
+  </si>
+  <si>
+    <t>2024-04-17</t>
   </si>
 </sst>
 </file>
@@ -940,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI422"/>
+  <dimension ref="A1:BI423"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="AW2" sqref="AW2"/>
+      <selection activeCell="G419" sqref="G419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -78685,112 +78685,112 @@
         <v>110556</v>
       </c>
       <c r="C422" s="2">
-        <v>11989</v>
+        <v>11988.8</v>
       </c>
       <c r="D422" s="2">
-        <v>22372</v>
+        <v>22371.599999999999</v>
       </c>
       <c r="E422" s="2">
-        <v>0</v>
+        <v>4179.2</v>
       </c>
       <c r="F422" s="2">
-        <v>0</v>
+        <v>5201.8</v>
       </c>
       <c r="G422" s="2">
-        <v>0</v>
+        <v>1457.3</v>
       </c>
       <c r="H422" s="2">
         <v>2585</v>
       </c>
       <c r="I422" s="2">
-        <v>799</v>
+        <v>799.1</v>
       </c>
       <c r="J422" s="2">
-        <v>0</v>
+        <v>3024.4</v>
       </c>
       <c r="K422" s="2">
-        <v>1854</v>
+        <v>1854.2</v>
       </c>
       <c r="L422" s="2">
-        <v>0</v>
+        <v>1716.4</v>
       </c>
       <c r="M422" s="2">
-        <v>21339</v>
+        <v>21338.9</v>
       </c>
       <c r="N422" s="2">
-        <v>25655</v>
+        <v>25655.1</v>
       </c>
       <c r="O422" s="2">
-        <v>33603</v>
+        <v>33602.6</v>
       </c>
       <c r="P422" s="2">
-        <v>1945</v>
+        <v>1945.3</v>
       </c>
       <c r="Q422" s="2">
-        <v>0</v>
+        <v>486.3</v>
       </c>
       <c r="R422" s="2">
-        <v>0</v>
+        <v>2016.6</v>
       </c>
       <c r="S422" s="2">
-        <v>0</v>
+        <v>1568.5</v>
       </c>
       <c r="T422" s="2">
-        <v>33684</v>
+        <v>33684.1</v>
       </c>
       <c r="U422" s="2">
-        <v>24805</v>
+        <v>24805.200000000001</v>
       </c>
       <c r="V422" s="2">
-        <v>15</v>
+        <v>15.3</v>
       </c>
       <c r="W422" s="2">
         <v>120294</v>
       </c>
       <c r="X422" s="2">
-        <v>0</v>
+        <v>7467.4</v>
       </c>
       <c r="Y422" s="2">
-        <v>0</v>
+        <v>50276.3</v>
       </c>
       <c r="Z422" s="2">
-        <v>4180</v>
+        <v>4180.3999999999996</v>
       </c>
       <c r="AA422" s="2">
-        <v>0</v>
+        <v>95668</v>
       </c>
       <c r="AB422" s="2">
-        <v>0</v>
+        <v>211165</v>
       </c>
       <c r="AC422" s="2">
-        <v>0</v>
+        <v>16853</v>
       </c>
       <c r="AD422" s="2">
-        <v>0</v>
+        <v>88562.4</v>
       </c>
       <c r="AE422" s="2">
-        <v>0</v>
+        <v>331311</v>
       </c>
       <c r="AF422" s="2">
-        <v>0</v>
+        <v>119738</v>
       </c>
       <c r="AG422" s="2">
-        <v>0</v>
+        <v>35951</v>
       </c>
       <c r="AH422" s="2">
-        <v>0</v>
+        <v>83787</v>
       </c>
       <c r="AI422" s="2">
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AJ422" s="2">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="AK422" s="2">
-        <v>0</v>
+        <v>58824.1</v>
       </c>
       <c r="AL422" s="2">
-        <v>0</v>
+        <v>959.4</v>
       </c>
       <c r="AM422" s="2">
         <v>663.1</v>
@@ -78799,67 +78799,252 @@
         <v>207.6</v>
       </c>
       <c r="AO422" s="2">
-        <v>0</v>
+        <v>3634.6</v>
       </c>
       <c r="AP422" s="2">
-        <v>77</v>
+        <v>76.5</v>
       </c>
       <c r="AQ422" s="2">
-        <v>0</v>
+        <v>520.1</v>
       </c>
       <c r="AR422" s="2">
         <v>9810000</v>
       </c>
       <c r="AS422" s="2">
-        <v>0</v>
+        <v>7714.3</v>
       </c>
       <c r="AT422" s="2">
-        <v>7404</v>
+        <v>7403.6</v>
       </c>
       <c r="AU422" s="2">
-        <v>0</v>
+        <v>4334.3</v>
       </c>
       <c r="AV422" s="2">
-        <v>0</v>
+        <v>6878</v>
       </c>
       <c r="AW422" s="2">
-        <v>0</v>
+        <v>2362.1</v>
       </c>
       <c r="AX422" s="2">
-        <v>0</v>
+        <v>2559.9</v>
       </c>
       <c r="AY422" s="2">
-        <v>0</v>
+        <v>735.5</v>
       </c>
       <c r="AZ422" s="2">
-        <v>0</v>
+        <v>105.6</v>
       </c>
       <c r="BA422" s="2">
         <v>27648</v>
       </c>
       <c r="BB422" s="2">
-        <v>0</v>
+        <v>28.7</v>
       </c>
       <c r="BC422" s="2">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="BD422" s="2">
-        <v>12588</v>
+        <v>12588.1</v>
       </c>
       <c r="BE422" s="2">
         <v>16028</v>
       </c>
       <c r="BF422" s="2">
-        <v>2102</v>
+        <v>2101.6999999999998</v>
       </c>
       <c r="BG422" s="2">
-        <v>2419</v>
+        <v>2419.4</v>
       </c>
       <c r="BH422" s="2">
-        <v>783</v>
+        <v>783.22360000000003</v>
       </c>
       <c r="BI422" s="2">
-        <v>1039</v>
+        <v>1039.2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:61">
+      <c r="A423" s="3">
+        <v>45412</v>
+      </c>
+      <c r="B423" s="2">
+        <v>147579</v>
+      </c>
+      <c r="C423" s="2">
+        <v>15848</v>
+      </c>
+      <c r="D423" s="2">
+        <v>29329</v>
+      </c>
+      <c r="E423" s="2">
+        <v>0</v>
+      </c>
+      <c r="F423" s="2">
+        <v>0</v>
+      </c>
+      <c r="G423" s="2">
+        <v>0</v>
+      </c>
+      <c r="H423" s="2">
+        <v>3426</v>
+      </c>
+      <c r="I423" s="2">
+        <v>1048</v>
+      </c>
+      <c r="J423" s="2">
+        <v>0</v>
+      </c>
+      <c r="K423" s="2">
+        <v>2514</v>
+      </c>
+      <c r="L423" s="2">
+        <v>0</v>
+      </c>
+      <c r="M423" s="2">
+        <v>28499</v>
+      </c>
+      <c r="N423" s="2">
+        <v>34367</v>
+      </c>
+      <c r="O423" s="2">
+        <v>45103</v>
+      </c>
+      <c r="P423" s="2">
+        <v>2589</v>
+      </c>
+      <c r="Q423" s="2">
+        <v>0</v>
+      </c>
+      <c r="R423" s="2">
+        <v>0</v>
+      </c>
+      <c r="S423" s="2">
+        <v>0</v>
+      </c>
+      <c r="T423" s="2">
+        <v>50928</v>
+      </c>
+      <c r="U423" s="2">
+        <v>32891</v>
+      </c>
+      <c r="V423" s="2">
+        <v>21</v>
+      </c>
+      <c r="W423" s="2">
+        <v>170784</v>
+      </c>
+      <c r="X423" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y423" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z423" s="2">
+        <v>5574</v>
+      </c>
+      <c r="AA423" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB423" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC423" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD423" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE423" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF423" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG423" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH423" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI423" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ423" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK423" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL423" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM423" s="2">
+        <v>897.7</v>
+      </c>
+      <c r="AN423" s="2">
+        <v>293.60000000000002</v>
+      </c>
+      <c r="AO423" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP423" s="2">
+        <v>103</v>
+      </c>
+      <c r="AQ423" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR423" s="2">
+        <v>13540000</v>
+      </c>
+      <c r="AS423" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT423" s="2">
+        <v>10007</v>
+      </c>
+      <c r="AU423" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV423" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW423" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX423" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY423" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ423" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA423" s="2">
+        <v>36727</v>
+      </c>
+      <c r="BB423" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC423" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD423" s="2">
+        <v>17630</v>
+      </c>
+      <c r="BE423" s="2">
+        <v>20622</v>
+      </c>
+      <c r="BF423" s="2">
+        <v>2937</v>
+      </c>
+      <c r="BG423" s="2">
+        <v>3250</v>
+      </c>
+      <c r="BH423" s="2">
+        <v>1114</v>
+      </c>
+      <c r="BI423" s="2">
+        <v>1405</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/monthly industry stats.xlsx
+++ b/inst/extdata/monthly industry stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A569B41-7C14-4147-ACE5-A2150BDF7191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C583AD34-E7BB-4E96-951D-E5C666A8A61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,64 +482,64 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1990-01:2024-03</t>
-  </si>
-  <si>
-    <t>1989-02:2024-03</t>
-  </si>
-  <si>
-    <t>2010-01:2024-03</t>
-  </si>
-  <si>
-    <t>1989-01:2024-04</t>
-  </si>
-  <si>
     <t>1990-01:2024-04</t>
   </si>
   <si>
     <t>1989-02:2024-04</t>
   </si>
   <si>
-    <t>1997-01:2024-03</t>
-  </si>
-  <si>
-    <t>2015-12:2024-04</t>
-  </si>
-  <si>
-    <t>2009-01:2024-03</t>
-  </si>
-  <si>
-    <t>2016-02:2024-04</t>
-  </si>
-  <si>
-    <t>2001-12:2024-03</t>
-  </si>
-  <si>
-    <t>1992-01:2024-03</t>
-  </si>
-  <si>
-    <t>2000-05:2024-03</t>
-  </si>
-  <si>
-    <t>2015-02:2024-03</t>
-  </si>
-  <si>
     <t>2010-01:2024-04</t>
   </si>
   <si>
-    <t>2009-09:2024-04</t>
+    <t>1989-01:2024-05</t>
   </si>
   <si>
-    <t>2016-05:2024-04</t>
+    <t>1990-01:2024-05</t>
   </si>
   <si>
-    <t>2001-01:2024-04</t>
+    <t>1989-02:2024-05</t>
   </si>
   <si>
-    <t>2024-05-17</t>
+    <t>1997-01:2024-04</t>
   </si>
   <si>
-    <t>2024-04-17</t>
+    <t>2015-12:2024-05</t>
+  </si>
+  <si>
+    <t>2009-01:2024-04</t>
+  </si>
+  <si>
+    <t>2016-02:2024-05</t>
+  </si>
+  <si>
+    <t>2001-12:2024-04</t>
+  </si>
+  <si>
+    <t>1992-01:2024-04</t>
+  </si>
+  <si>
+    <t>2000-05:2024-04</t>
+  </si>
+  <si>
+    <t>2015-02:2024-04</t>
+  </si>
+  <si>
+    <t>2010-01:2024-05</t>
+  </si>
+  <si>
+    <t>2009-09:2024-05</t>
+  </si>
+  <si>
+    <t>2016-05:2024-05</t>
+  </si>
+  <si>
+    <t>2001-01:2024-05</t>
+  </si>
+  <si>
+    <t>2024-06-17</t>
+  </si>
+  <si>
+    <t>2024-05-21</t>
   </si>
 </sst>
 </file>
@@ -940,9 +940,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI423"/>
+  <dimension ref="A1:BI424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G419" sqref="G419"/>
     </sheetView>
   </sheetViews>
@@ -78870,112 +78870,112 @@
         <v>147579</v>
       </c>
       <c r="C423" s="2">
-        <v>15848</v>
+        <v>15848.4</v>
       </c>
       <c r="D423" s="2">
-        <v>29329</v>
+        <v>29328.7</v>
       </c>
       <c r="E423" s="2">
-        <v>0</v>
+        <v>5527.5</v>
       </c>
       <c r="F423" s="2">
-        <v>0</v>
+        <v>6931.8</v>
       </c>
       <c r="G423" s="2">
-        <v>0</v>
+        <v>1926.5</v>
       </c>
       <c r="H423" s="2">
-        <v>3426</v>
+        <v>3425.8</v>
       </c>
       <c r="I423" s="2">
         <v>1048</v>
       </c>
       <c r="J423" s="2">
-        <v>0</v>
+        <v>4044.9</v>
       </c>
       <c r="K423" s="2">
-        <v>2514</v>
+        <v>2513.6999999999998</v>
       </c>
       <c r="L423" s="2">
-        <v>0</v>
+        <v>2340.6999999999998</v>
       </c>
       <c r="M423" s="2">
-        <v>28499</v>
+        <v>28498.799999999999</v>
       </c>
       <c r="N423" s="2">
-        <v>34367</v>
+        <v>34367.199999999997</v>
       </c>
       <c r="O423" s="2">
-        <v>45103</v>
+        <v>45102.9</v>
       </c>
       <c r="P423" s="2">
-        <v>2589</v>
+        <v>2589.1999999999998</v>
       </c>
       <c r="Q423" s="2">
-        <v>0</v>
+        <v>674.7</v>
       </c>
       <c r="R423" s="2">
-        <v>0</v>
+        <v>2701.1</v>
       </c>
       <c r="S423" s="2">
-        <v>0</v>
+        <v>2141.6999999999998</v>
       </c>
       <c r="T423" s="2">
-        <v>50928</v>
+        <v>50927.9</v>
       </c>
       <c r="U423" s="2">
         <v>32891</v>
       </c>
       <c r="V423" s="2">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="W423" s="2">
         <v>170784</v>
       </c>
       <c r="X423" s="2">
-        <v>0</v>
+        <v>10351.9</v>
       </c>
       <c r="Y423" s="2">
-        <v>0</v>
+        <v>63922.3</v>
       </c>
       <c r="Z423" s="2">
-        <v>5574</v>
+        <v>5573.8</v>
       </c>
       <c r="AA423" s="2">
-        <v>0</v>
+        <v>126391</v>
       </c>
       <c r="AB423" s="2">
-        <v>0</v>
+        <v>266442</v>
       </c>
       <c r="AC423" s="2">
-        <v>0</v>
+        <v>23579</v>
       </c>
       <c r="AD423" s="2">
-        <v>0</v>
+        <v>112212.2</v>
       </c>
       <c r="AE423" s="2">
-        <v>0</v>
+        <v>396340.3</v>
       </c>
       <c r="AF423" s="2">
-        <v>0</v>
+        <v>156316</v>
       </c>
       <c r="AG423" s="2">
-        <v>0</v>
+        <v>48395</v>
       </c>
       <c r="AH423" s="2">
-        <v>0</v>
+        <v>107921</v>
       </c>
       <c r="AI423" s="2">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AJ423" s="2">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="AK423" s="2">
-        <v>0</v>
+        <v>78195.899999999994</v>
       </c>
       <c r="AL423" s="2">
-        <v>0</v>
+        <v>1304.5</v>
       </c>
       <c r="AM423" s="2">
         <v>897.7</v>
@@ -78984,67 +78984,252 @@
         <v>293.60000000000002</v>
       </c>
       <c r="AO423" s="2">
-        <v>0</v>
+        <v>4972</v>
       </c>
       <c r="AP423" s="2">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="AQ423" s="2">
-        <v>0</v>
+        <v>706.1</v>
       </c>
       <c r="AR423" s="2">
-        <v>13540000</v>
+        <v>13539000</v>
       </c>
       <c r="AS423" s="2">
-        <v>0</v>
+        <v>10529.8</v>
       </c>
       <c r="AT423" s="2">
-        <v>10007</v>
+        <v>10006.9</v>
       </c>
       <c r="AU423" s="2">
-        <v>0</v>
+        <v>6063.1</v>
       </c>
       <c r="AV423" s="2">
-        <v>0</v>
+        <v>9914</v>
       </c>
       <c r="AW423" s="2">
-        <v>0</v>
+        <v>3285.9</v>
       </c>
       <c r="AX423" s="2">
-        <v>0</v>
+        <v>3546.2</v>
       </c>
       <c r="AY423" s="2">
-        <v>0</v>
+        <v>943.1</v>
       </c>
       <c r="AZ423" s="2">
-        <v>0</v>
+        <v>173.9</v>
       </c>
       <c r="BA423" s="2">
         <v>36727</v>
       </c>
       <c r="BB423" s="2">
-        <v>0</v>
+        <v>41.8</v>
       </c>
       <c r="BC423" s="2">
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="BD423" s="2">
-        <v>17630</v>
+        <v>17629.599999999999</v>
       </c>
       <c r="BE423" s="2">
-        <v>20622</v>
+        <v>20621.900000000001</v>
       </c>
       <c r="BF423" s="2">
-        <v>2937</v>
+        <v>2937.4</v>
       </c>
       <c r="BG423" s="2">
-        <v>3250</v>
+        <v>3250.4</v>
       </c>
       <c r="BH423" s="2">
-        <v>1114</v>
+        <v>1113.9567</v>
       </c>
       <c r="BI423" s="2">
-        <v>1405</v>
+        <v>1404.9</v>
+      </c>
+    </row>
+    <row r="424" spans="1:61">
+      <c r="A424" s="3">
+        <v>45443</v>
+      </c>
+      <c r="B424" s="2">
+        <v>185788</v>
+      </c>
+      <c r="C424" s="2">
+        <v>19947</v>
+      </c>
+      <c r="D424" s="2">
+        <v>36570</v>
+      </c>
+      <c r="E424" s="2">
+        <v>0</v>
+      </c>
+      <c r="F424" s="2">
+        <v>0</v>
+      </c>
+      <c r="G424" s="2">
+        <v>0</v>
+      </c>
+      <c r="H424" s="2">
+        <v>4248</v>
+      </c>
+      <c r="I424" s="2">
+        <v>1332</v>
+      </c>
+      <c r="J424" s="2">
+        <v>0</v>
+      </c>
+      <c r="K424" s="2">
+        <v>3203</v>
+      </c>
+      <c r="L424" s="2">
+        <v>0</v>
+      </c>
+      <c r="M424" s="2">
+        <v>36113</v>
+      </c>
+      <c r="N424" s="2">
+        <v>43861</v>
+      </c>
+      <c r="O424" s="2">
+        <v>57405</v>
+      </c>
+      <c r="P424" s="2">
+        <v>3242</v>
+      </c>
+      <c r="Q424" s="2">
+        <v>0</v>
+      </c>
+      <c r="R424" s="2">
+        <v>0</v>
+      </c>
+      <c r="S424" s="2">
+        <v>0</v>
+      </c>
+      <c r="T424" s="2">
+        <v>68727</v>
+      </c>
+      <c r="U424" s="2">
+        <v>41426</v>
+      </c>
+      <c r="V424" s="2">
+        <v>27</v>
+      </c>
+      <c r="W424" s="2">
+        <v>227784</v>
+      </c>
+      <c r="X424" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y424" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z424" s="2">
+        <v>7705</v>
+      </c>
+      <c r="AA424" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB424" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC424" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD424" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE424" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF424" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG424" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH424" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI424" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ424" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK424" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL424" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM424" s="2">
+        <v>1133.0999999999999</v>
+      </c>
+      <c r="AN424" s="2">
+        <v>388.2</v>
+      </c>
+      <c r="AO424" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP424" s="2">
+        <v>130</v>
+      </c>
+      <c r="AQ424" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR424" s="2">
+        <v>17030000</v>
+      </c>
+      <c r="AS424" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT424" s="2">
+        <v>12764</v>
+      </c>
+      <c r="AU424" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV424" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW424" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX424" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY424" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ424" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA424" s="2">
+        <v>46198</v>
+      </c>
+      <c r="BB424" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC424" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD424" s="2">
+        <v>23778</v>
+      </c>
+      <c r="BE424" s="2">
+        <v>25173</v>
+      </c>
+      <c r="BF424" s="2">
+        <v>4089</v>
+      </c>
+      <c r="BG424" s="2">
+        <v>4048</v>
+      </c>
+      <c r="BH424" s="2">
+        <v>1495</v>
+      </c>
+      <c r="BI424" s="2">
+        <v>1765</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/monthly industry stats.xlsx
+++ b/inst/extdata/monthly industry stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C583AD34-E7BB-4E96-951D-E5C666A8A61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12631B6-790E-464A-80B3-373D1C9E2E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="14400" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_ Raw Coal_ YTD" sheetId="1" r:id="rId1"/>
@@ -482,64 +482,64 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1990-01:2024-04</t>
-  </si>
-  <si>
-    <t>1989-02:2024-04</t>
-  </si>
-  <si>
-    <t>2010-01:2024-04</t>
-  </si>
-  <si>
-    <t>1989-01:2024-05</t>
-  </si>
-  <si>
     <t>1990-01:2024-05</t>
   </si>
   <si>
     <t>1989-02:2024-05</t>
   </si>
   <si>
-    <t>1997-01:2024-04</t>
-  </si>
-  <si>
-    <t>2015-12:2024-05</t>
-  </si>
-  <si>
-    <t>2009-01:2024-04</t>
-  </si>
-  <si>
-    <t>2016-02:2024-05</t>
-  </si>
-  <si>
-    <t>2001-12:2024-04</t>
-  </si>
-  <si>
-    <t>1992-01:2024-04</t>
-  </si>
-  <si>
-    <t>2000-05:2024-04</t>
-  </si>
-  <si>
-    <t>2015-02:2024-04</t>
-  </si>
-  <si>
     <t>2010-01:2024-05</t>
   </si>
   <si>
-    <t>2009-09:2024-05</t>
+    <t>1989-01:2024-06</t>
   </si>
   <si>
-    <t>2016-05:2024-05</t>
+    <t>1990-01:2024-06</t>
   </si>
   <si>
-    <t>2001-01:2024-05</t>
+    <t>1989-02:2024-06</t>
   </si>
   <si>
-    <t>2024-06-17</t>
+    <t>1997-01:2024-05</t>
   </si>
   <si>
-    <t>2024-05-21</t>
+    <t>2015-12:2024-06</t>
+  </si>
+  <si>
+    <t>2009-01:2024-05</t>
+  </si>
+  <si>
+    <t>2016-02:2024-06</t>
+  </si>
+  <si>
+    <t>2001-12:2024-05</t>
+  </si>
+  <si>
+    <t>1992-01:2024-05</t>
+  </si>
+  <si>
+    <t>2000-05:2024-05</t>
+  </si>
+  <si>
+    <t>2015-02:2024-05</t>
+  </si>
+  <si>
+    <t>2010-01:2024-06</t>
+  </si>
+  <si>
+    <t>2009-09:2024-06</t>
+  </si>
+  <si>
+    <t>2016-05:2024-06</t>
+  </si>
+  <si>
+    <t>2001-01:2024-06</t>
+  </si>
+  <si>
+    <t>2024-07-15</t>
+  </si>
+  <si>
+    <t>2024-06-18</t>
   </si>
 </sst>
 </file>
@@ -940,7 +940,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI424"/>
+  <dimension ref="A1:BI425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G419" sqref="G419"/>
@@ -79052,22 +79052,22 @@
         <v>45443</v>
       </c>
       <c r="B424" s="2">
-        <v>185788</v>
+        <v>185787.8</v>
       </c>
       <c r="C424" s="2">
-        <v>19947</v>
+        <v>19946.8</v>
       </c>
       <c r="D424" s="2">
-        <v>36570</v>
+        <v>36569.699999999997</v>
       </c>
       <c r="E424" s="2">
-        <v>0</v>
+        <v>6909.8</v>
       </c>
       <c r="F424" s="2">
-        <v>0</v>
+        <v>8666.7000000000007</v>
       </c>
       <c r="G424" s="2">
-        <v>0</v>
+        <v>2416.4</v>
       </c>
       <c r="H424" s="2">
         <v>4248</v>
@@ -79076,19 +79076,19 @@
         <v>1332</v>
       </c>
       <c r="J424" s="2">
-        <v>0</v>
+        <v>5243.6</v>
       </c>
       <c r="K424" s="2">
         <v>3203</v>
       </c>
       <c r="L424" s="2">
-        <v>0</v>
+        <v>3002.8</v>
       </c>
       <c r="M424" s="2">
         <v>36113</v>
       </c>
       <c r="N424" s="2">
-        <v>43861</v>
+        <v>43861.4</v>
       </c>
       <c r="O424" s="2">
         <v>57405</v>
@@ -79097,19 +79097,19 @@
         <v>3242</v>
       </c>
       <c r="Q424" s="2">
-        <v>0</v>
+        <v>862.1</v>
       </c>
       <c r="R424" s="2">
-        <v>0</v>
+        <v>3414</v>
       </c>
       <c r="S424" s="2">
-        <v>0</v>
+        <v>2732.1</v>
       </c>
       <c r="T424" s="2">
-        <v>68727</v>
+        <v>68727.3</v>
       </c>
       <c r="U424" s="2">
-        <v>41426</v>
+        <v>41425.699999999997</v>
       </c>
       <c r="V424" s="2">
         <v>27</v>
@@ -79118,49 +79118,49 @@
         <v>227784</v>
       </c>
       <c r="X424" s="2">
-        <v>0</v>
+        <v>13426.3</v>
       </c>
       <c r="Y424" s="2">
-        <v>0</v>
+        <v>78889.3</v>
       </c>
       <c r="Z424" s="2">
-        <v>7705</v>
+        <v>7704.5</v>
       </c>
       <c r="AA424" s="2">
-        <v>0</v>
+        <v>162866</v>
       </c>
       <c r="AB424" s="2">
-        <v>0</v>
+        <v>527861</v>
       </c>
       <c r="AC424" s="2">
-        <v>0</v>
+        <v>37501</v>
       </c>
       <c r="AD424" s="2">
-        <v>0</v>
+        <v>120603</v>
       </c>
       <c r="AE424" s="2">
-        <v>0</v>
+        <v>447511.1</v>
       </c>
       <c r="AF424" s="2">
-        <v>0</v>
+        <v>186611</v>
       </c>
       <c r="AG424" s="2">
-        <v>0</v>
+        <v>58665</v>
       </c>
       <c r="AH424" s="2">
-        <v>0</v>
+        <v>127946</v>
       </c>
       <c r="AI424" s="2">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AJ424" s="2">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="AK424" s="2">
-        <v>0</v>
+        <v>96034.4</v>
       </c>
       <c r="AL424" s="2">
-        <v>0</v>
+        <v>1582.6</v>
       </c>
       <c r="AM424" s="2">
         <v>1133.0999999999999</v>
@@ -79169,67 +79169,252 @@
         <v>388.2</v>
       </c>
       <c r="AO424" s="2">
-        <v>0</v>
+        <v>6321.2</v>
       </c>
       <c r="AP424" s="2">
         <v>130</v>
       </c>
       <c r="AQ424" s="2">
-        <v>0</v>
+        <v>891.8</v>
       </c>
       <c r="AR424" s="2">
-        <v>17030000</v>
+        <v>17028000</v>
       </c>
       <c r="AS424" s="2">
-        <v>0</v>
+        <v>13414.3</v>
       </c>
       <c r="AT424" s="2">
-        <v>12764</v>
+        <v>12763.5</v>
       </c>
       <c r="AU424" s="2">
-        <v>0</v>
+        <v>7758.8</v>
       </c>
       <c r="AV424" s="2">
-        <v>0</v>
+        <v>12880.7</v>
       </c>
       <c r="AW424" s="2">
-        <v>0</v>
+        <v>4179.1000000000004</v>
       </c>
       <c r="AX424" s="2">
-        <v>0</v>
+        <v>4495.3999999999996</v>
       </c>
       <c r="AY424" s="2">
-        <v>0</v>
+        <v>1143.0999999999999</v>
       </c>
       <c r="AZ424" s="2">
-        <v>0</v>
+        <v>213.7</v>
       </c>
       <c r="BA424" s="2">
         <v>46198</v>
       </c>
       <c r="BB424" s="2">
-        <v>0</v>
+        <v>55.3</v>
       </c>
       <c r="BC424" s="2">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="BD424" s="2">
         <v>23778</v>
       </c>
       <c r="BE424" s="2">
-        <v>25173</v>
+        <v>25172.6</v>
       </c>
       <c r="BF424" s="2">
-        <v>4089</v>
+        <v>4088.5</v>
       </c>
       <c r="BG424" s="2">
-        <v>4048</v>
+        <v>4048.3</v>
       </c>
       <c r="BH424" s="2">
-        <v>1495</v>
+        <v>1495.2348999999999</v>
       </c>
       <c r="BI424" s="2">
-        <v>1765</v>
+        <v>1764.9</v>
+      </c>
+    </row>
+    <row r="425" spans="1:61">
+      <c r="A425" s="3">
+        <v>45473</v>
+      </c>
+      <c r="B425" s="2">
+        <v>226551</v>
+      </c>
+      <c r="C425" s="2">
+        <v>24182</v>
+      </c>
+      <c r="D425" s="2">
+        <v>44354</v>
+      </c>
+      <c r="E425" s="2">
+        <v>0</v>
+      </c>
+      <c r="F425" s="2">
+        <v>0</v>
+      </c>
+      <c r="G425" s="2">
+        <v>0</v>
+      </c>
+      <c r="H425" s="2">
+        <v>5060</v>
+      </c>
+      <c r="I425" s="2">
+        <v>1593</v>
+      </c>
+      <c r="J425" s="2">
+        <v>0</v>
+      </c>
+      <c r="K425" s="2">
+        <v>3885</v>
+      </c>
+      <c r="L425" s="2">
+        <v>0</v>
+      </c>
+      <c r="M425" s="2">
+        <v>43562</v>
+      </c>
+      <c r="N425" s="2">
+        <v>53057</v>
+      </c>
+      <c r="O425" s="2">
+        <v>70102</v>
+      </c>
+      <c r="P425" s="2">
+        <v>3900</v>
+      </c>
+      <c r="Q425" s="2">
+        <v>0</v>
+      </c>
+      <c r="R425" s="2">
+        <v>0</v>
+      </c>
+      <c r="S425" s="2">
+        <v>0</v>
+      </c>
+      <c r="T425" s="2">
+        <v>85047</v>
+      </c>
+      <c r="U425" s="2">
+        <v>50686</v>
+      </c>
+      <c r="V425" s="2">
+        <v>33</v>
+      </c>
+      <c r="W425" s="2">
+        <v>283202</v>
+      </c>
+      <c r="X425" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y425" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z425" s="2">
+        <v>11109</v>
+      </c>
+      <c r="AA425" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB425" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC425" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD425" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE425" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF425" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG425" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH425" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI425" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ425" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK425" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL425" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM425" s="2">
+        <v>1396</v>
+      </c>
+      <c r="AN425" s="2">
+        <v>490.3</v>
+      </c>
+      <c r="AO425" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP425" s="2">
+        <v>159</v>
+      </c>
+      <c r="AQ425" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR425" s="2">
+        <v>20710000</v>
+      </c>
+      <c r="AS425" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT425" s="2">
+        <v>15730</v>
+      </c>
+      <c r="AU425" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV425" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW425" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX425" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY425" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ425" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA425" s="2">
+        <v>56255</v>
+      </c>
+      <c r="BB425" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC425" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD425" s="2">
+        <v>28629</v>
+      </c>
+      <c r="BE425" s="2">
+        <v>30053</v>
+      </c>
+      <c r="BF425" s="2">
+        <v>5526</v>
+      </c>
+      <c r="BG425" s="2">
+        <v>4755</v>
+      </c>
+      <c r="BH425" s="2">
+        <v>1899</v>
+      </c>
+      <c r="BI425" s="2">
+        <v>2121</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/monthly industry stats.xlsx
+++ b/inst/extdata/monthly industry stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12631B6-790E-464A-80B3-373D1C9E2E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B271478-26C6-4DBC-9176-79BC703A0F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="14400" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_ Raw Coal_ YTD" sheetId="1" r:id="rId1"/>
@@ -482,64 +482,64 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1990-01:2024-05</t>
-  </si>
-  <si>
-    <t>1989-02:2024-05</t>
-  </si>
-  <si>
-    <t>2010-01:2024-05</t>
-  </si>
-  <si>
-    <t>1989-01:2024-06</t>
-  </si>
-  <si>
     <t>1990-01:2024-06</t>
   </si>
   <si>
     <t>1989-02:2024-06</t>
   </si>
   <si>
-    <t>1997-01:2024-05</t>
-  </si>
-  <si>
-    <t>2015-12:2024-06</t>
-  </si>
-  <si>
-    <t>2009-01:2024-05</t>
-  </si>
-  <si>
-    <t>2016-02:2024-06</t>
-  </si>
-  <si>
-    <t>2001-12:2024-05</t>
-  </si>
-  <si>
-    <t>1992-01:2024-05</t>
-  </si>
-  <si>
-    <t>2000-05:2024-05</t>
-  </si>
-  <si>
-    <t>2015-02:2024-05</t>
-  </si>
-  <si>
     <t>2010-01:2024-06</t>
   </si>
   <si>
-    <t>2009-09:2024-06</t>
+    <t>1989-01:2024-07</t>
   </si>
   <si>
-    <t>2016-05:2024-06</t>
+    <t>1990-01:2024-07</t>
   </si>
   <si>
-    <t>2001-01:2024-06</t>
+    <t>1989-02:2024-07</t>
   </si>
   <si>
-    <t>2024-07-15</t>
+    <t>1997-01:2024-06</t>
   </si>
   <si>
-    <t>2024-06-18</t>
+    <t>2015-12:2024-07</t>
+  </si>
+  <si>
+    <t>2009-01:2024-06</t>
+  </si>
+  <si>
+    <t>2016-02:2024-07</t>
+  </si>
+  <si>
+    <t>2001-12:2024-06</t>
+  </si>
+  <si>
+    <t>1992-01:2024-06</t>
+  </si>
+  <si>
+    <t>2000-05:2024-06</t>
+  </si>
+  <si>
+    <t>2015-02:2024-06</t>
+  </si>
+  <si>
+    <t>2010-01:2024-07</t>
+  </si>
+  <si>
+    <t>2009-09:2024-07</t>
+  </si>
+  <si>
+    <t>2016-05:2024-07</t>
+  </si>
+  <si>
+    <t>2001-01:2024-07</t>
+  </si>
+  <si>
+    <t>2024-08-15</t>
+  </si>
+  <si>
+    <t>2024-07-17</t>
   </si>
 </sst>
 </file>
@@ -940,9 +940,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI425"/>
+  <dimension ref="A1:BI426"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
       <selection activeCell="G419" sqref="G419"/>
     </sheetView>
   </sheetViews>
@@ -79237,184 +79237,369 @@
         <v>45473</v>
       </c>
       <c r="B425" s="2">
-        <v>226551</v>
+        <v>226550.9</v>
       </c>
       <c r="C425" s="2">
-        <v>24182</v>
+        <v>24182.1</v>
       </c>
       <c r="D425" s="2">
-        <v>44354</v>
+        <v>44354.5</v>
       </c>
       <c r="E425" s="2">
-        <v>0</v>
+        <v>8282.7999999999993</v>
       </c>
       <c r="F425" s="2">
-        <v>0</v>
+        <v>10322.200000000001</v>
       </c>
       <c r="G425" s="2">
-        <v>0</v>
+        <v>2884.5</v>
       </c>
       <c r="H425" s="2">
-        <v>5060</v>
+        <v>5059.5527199999997</v>
       </c>
       <c r="I425" s="2">
-        <v>1593</v>
+        <v>1592.7423100000001</v>
       </c>
       <c r="J425" s="2">
-        <v>0</v>
+        <v>6284.9883099999997</v>
       </c>
       <c r="K425" s="2">
-        <v>3885</v>
+        <v>3884.6058800000001</v>
       </c>
       <c r="L425" s="2">
-        <v>0</v>
+        <v>3619.3972800000001</v>
       </c>
       <c r="M425" s="2">
-        <v>43562</v>
+        <v>43561.610110000001</v>
       </c>
       <c r="N425" s="2">
-        <v>53057</v>
+        <v>53057.221640000003</v>
       </c>
       <c r="O425" s="2">
-        <v>70102</v>
+        <v>70101.643880000003</v>
       </c>
       <c r="P425" s="2">
-        <v>3900</v>
+        <v>3900.2281899999998</v>
       </c>
       <c r="Q425" s="2">
-        <v>0</v>
+        <v>1060.9774</v>
       </c>
       <c r="R425" s="2">
-        <v>0</v>
+        <v>4132.67533</v>
       </c>
       <c r="S425" s="2">
-        <v>0</v>
+        <v>3325.53006</v>
       </c>
       <c r="T425" s="2">
-        <v>85047</v>
+        <v>85046.76281</v>
       </c>
       <c r="U425" s="2">
-        <v>50686</v>
+        <v>50686.270680000001</v>
       </c>
       <c r="V425" s="2">
-        <v>33</v>
+        <v>33.326099999999997</v>
       </c>
       <c r="W425" s="2">
         <v>283202</v>
       </c>
       <c r="X425" s="2">
-        <v>0</v>
+        <v>16515.805810000002</v>
       </c>
       <c r="Y425" s="2">
-        <v>0</v>
+        <v>97475.199999999997</v>
       </c>
       <c r="Z425" s="2">
-        <v>11109</v>
+        <v>11109.26535</v>
       </c>
       <c r="AA425" s="2">
-        <v>0</v>
+        <v>209507</v>
       </c>
       <c r="AB425" s="2">
-        <v>0</v>
+        <v>657556</v>
       </c>
       <c r="AC425" s="2">
-        <v>0</v>
+        <v>50134</v>
       </c>
       <c r="AD425" s="2">
-        <v>0</v>
+        <v>139342.9</v>
       </c>
       <c r="AE425" s="2">
-        <v>0</v>
+        <v>516932.9</v>
       </c>
       <c r="AF425" s="2">
-        <v>0</v>
+        <v>208594</v>
       </c>
       <c r="AG425" s="2">
-        <v>0</v>
+        <v>65448</v>
       </c>
       <c r="AH425" s="2">
-        <v>0</v>
+        <v>143146</v>
       </c>
       <c r="AI425" s="2">
-        <v>0</v>
+        <v>7.8314000000000004</v>
       </c>
       <c r="AJ425" s="2">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="AK425" s="2">
-        <v>0</v>
+        <v>113947.74506</v>
       </c>
       <c r="AL425" s="2">
-        <v>0</v>
+        <v>2025.7587799999999</v>
       </c>
       <c r="AM425" s="2">
-        <v>1396</v>
+        <v>1396.0362</v>
       </c>
       <c r="AN425" s="2">
         <v>490.3</v>
       </c>
       <c r="AO425" s="2">
-        <v>0</v>
+        <v>7661.28809</v>
       </c>
       <c r="AP425" s="2">
-        <v>159</v>
+        <v>158.73541</v>
       </c>
       <c r="AQ425" s="2">
-        <v>0</v>
+        <v>1086.6488099999999</v>
       </c>
       <c r="AR425" s="2">
-        <v>20710000</v>
+        <v>20710549.100000001</v>
       </c>
       <c r="AS425" s="2">
-        <v>0</v>
+        <v>16535.284199999998</v>
       </c>
       <c r="AT425" s="2">
-        <v>15730</v>
+        <v>15730.0653</v>
       </c>
       <c r="AU425" s="2">
-        <v>0</v>
+        <v>9602.7918000000009</v>
       </c>
       <c r="AV425" s="2">
-        <v>0</v>
+        <v>15705.601199999999</v>
       </c>
       <c r="AW425" s="2">
-        <v>0</v>
+        <v>5051.0057999999999</v>
       </c>
       <c r="AX425" s="2">
-        <v>0</v>
+        <v>5311.6241</v>
       </c>
       <c r="AY425" s="2">
-        <v>0</v>
+        <v>1346.3241</v>
       </c>
       <c r="AZ425" s="2">
-        <v>0</v>
+        <v>288.09019999999998</v>
       </c>
       <c r="BA425" s="2">
         <v>56255</v>
       </c>
       <c r="BB425" s="2">
-        <v>0</v>
+        <v>69.8</v>
       </c>
       <c r="BC425" s="2">
-        <v>0</v>
+        <v>748</v>
       </c>
       <c r="BD425" s="2">
-        <v>28629</v>
+        <v>28629.4</v>
       </c>
       <c r="BE425" s="2">
-        <v>30053</v>
+        <v>30052.7</v>
       </c>
       <c r="BF425" s="2">
-        <v>5526</v>
+        <v>5525.8</v>
       </c>
       <c r="BG425" s="2">
-        <v>4755</v>
+        <v>4755.2</v>
       </c>
       <c r="BH425" s="2">
-        <v>1899</v>
+        <v>1899.2976000000001</v>
       </c>
       <c r="BI425" s="2">
-        <v>2121</v>
+        <v>2121.5</v>
+      </c>
+    </row>
+    <row r="426" spans="1:61">
+      <c r="A426" s="3">
+        <v>45504</v>
+      </c>
+      <c r="B426" s="2">
+        <v>265693</v>
+      </c>
+      <c r="C426" s="2">
+        <v>28344</v>
+      </c>
+      <c r="D426" s="2">
+        <v>53239</v>
+      </c>
+      <c r="E426" s="2">
+        <v>0</v>
+      </c>
+      <c r="F426" s="2">
+        <v>0</v>
+      </c>
+      <c r="G426" s="2">
+        <v>0</v>
+      </c>
+      <c r="H426" s="2">
+        <v>5953</v>
+      </c>
+      <c r="I426" s="2">
+        <v>1870</v>
+      </c>
+      <c r="J426" s="2">
+        <v>0</v>
+      </c>
+      <c r="K426" s="2">
+        <v>4540</v>
+      </c>
+      <c r="L426" s="2">
+        <v>0</v>
+      </c>
+      <c r="M426" s="2">
+        <v>50968</v>
+      </c>
+      <c r="N426" s="2">
+        <v>61372</v>
+      </c>
+      <c r="O426" s="2">
+        <v>81341</v>
+      </c>
+      <c r="P426" s="2">
+        <v>4555</v>
+      </c>
+      <c r="Q426" s="2">
+        <v>0</v>
+      </c>
+      <c r="R426" s="2">
+        <v>0</v>
+      </c>
+      <c r="S426" s="2">
+        <v>0</v>
+      </c>
+      <c r="T426" s="2">
+        <v>100145</v>
+      </c>
+      <c r="U426" s="2">
+        <v>58986</v>
+      </c>
+      <c r="V426" s="2">
+        <v>39</v>
+      </c>
+      <c r="W426" s="2">
+        <v>311391</v>
+      </c>
+      <c r="X426" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y426" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z426" s="2">
+        <v>13128</v>
+      </c>
+      <c r="AA426" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB426" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC426" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD426" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE426" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF426" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG426" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH426" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI426" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ426" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK426" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL426" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM426" s="2">
+        <v>1624.8</v>
+      </c>
+      <c r="AN426" s="2">
+        <v>589.1</v>
+      </c>
+      <c r="AO426" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP426" s="2">
+        <v>179</v>
+      </c>
+      <c r="AQ426" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR426" s="2">
+        <v>24450000</v>
+      </c>
+      <c r="AS426" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT426" s="2">
+        <v>18552</v>
+      </c>
+      <c r="AU426" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV426" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW426" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX426" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY426" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ426" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA426" s="2">
+        <v>65381</v>
+      </c>
+      <c r="BB426" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC426" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD426" s="2">
+        <v>33426</v>
+      </c>
+      <c r="BE426" s="2">
+        <v>35814</v>
+      </c>
+      <c r="BF426" s="2">
+        <v>7188</v>
+      </c>
+      <c r="BG426" s="2">
+        <v>5437</v>
+      </c>
+      <c r="BH426" s="2">
+        <v>2282</v>
+      </c>
+      <c r="BI426" s="2">
+        <v>2518</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/monthly industry stats.xlsx
+++ b/inst/extdata/monthly industry stats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B271478-26C6-4DBC-9176-79BC703A0F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C406866-3F77-4D54-8615-394087FEA72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,64 +482,64 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1990-01:2024-06</t>
-  </si>
-  <si>
-    <t>1989-02:2024-06</t>
-  </si>
-  <si>
-    <t>2010-01:2024-06</t>
-  </si>
-  <si>
-    <t>1989-01:2024-07</t>
-  </si>
-  <si>
     <t>1990-01:2024-07</t>
   </si>
   <si>
     <t>1989-02:2024-07</t>
   </si>
   <si>
-    <t>1997-01:2024-06</t>
-  </si>
-  <si>
-    <t>2015-12:2024-07</t>
-  </si>
-  <si>
-    <t>2009-01:2024-06</t>
-  </si>
-  <si>
-    <t>2016-02:2024-07</t>
-  </si>
-  <si>
-    <t>2001-12:2024-06</t>
-  </si>
-  <si>
-    <t>1992-01:2024-06</t>
-  </si>
-  <si>
-    <t>2000-05:2024-06</t>
-  </si>
-  <si>
-    <t>2015-02:2024-06</t>
-  </si>
-  <si>
     <t>2010-01:2024-07</t>
   </si>
   <si>
-    <t>2009-09:2024-07</t>
+    <t>1989-01:2024-08</t>
   </si>
   <si>
-    <t>2016-05:2024-07</t>
+    <t>1990-01:2024-08</t>
   </si>
   <si>
-    <t>2001-01:2024-07</t>
+    <t>1989-02:2024-08</t>
   </si>
   <si>
-    <t>2024-08-15</t>
+    <t>1997-01:2024-07</t>
   </si>
   <si>
-    <t>2024-07-17</t>
+    <t>2015-12:2024-08</t>
+  </si>
+  <si>
+    <t>2009-01:2024-07</t>
+  </si>
+  <si>
+    <t>2016-02:2024-08</t>
+  </si>
+  <si>
+    <t>2001-12:2024-07</t>
+  </si>
+  <si>
+    <t>1992-01:2024-07</t>
+  </si>
+  <si>
+    <t>2000-05:2024-07</t>
+  </si>
+  <si>
+    <t>2015-02:2024-07</t>
+  </si>
+  <si>
+    <t>2010-01:2024-08</t>
+  </si>
+  <si>
+    <t>2009-09:2024-08</t>
+  </si>
+  <si>
+    <t>2016-05:2024-08</t>
+  </si>
+  <si>
+    <t>2001-01:2024-08</t>
+  </si>
+  <si>
+    <t>2024-09-14</t>
+  </si>
+  <si>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
@@ -940,9 +940,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI426"/>
+  <dimension ref="A1:BI427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G419" sqref="G419"/>
     </sheetView>
   </sheetViews>
@@ -79422,184 +79422,369 @@
         <v>45504</v>
       </c>
       <c r="B426" s="2">
-        <v>265693</v>
+        <v>265693.09999999998</v>
       </c>
       <c r="C426" s="2">
-        <v>28344</v>
+        <v>28343.5</v>
       </c>
       <c r="D426" s="2">
-        <v>53239</v>
+        <v>53239.3</v>
       </c>
       <c r="E426" s="2">
-        <v>0</v>
+        <v>9676.7000000000007</v>
       </c>
       <c r="F426" s="2">
-        <v>0</v>
+        <v>11938.7</v>
       </c>
       <c r="G426" s="2">
-        <v>0</v>
+        <v>3372</v>
       </c>
       <c r="H426" s="2">
-        <v>5953</v>
+        <v>5953.1835799999999</v>
       </c>
       <c r="I426" s="2">
-        <v>1870</v>
+        <v>1870.3673799999999</v>
       </c>
       <c r="J426" s="2">
-        <v>0</v>
+        <v>7309.5290500000001</v>
       </c>
       <c r="K426" s="2">
-        <v>4540</v>
+        <v>4539.8659500000003</v>
       </c>
       <c r="L426" s="2">
-        <v>0</v>
+        <v>4201.2391900000002</v>
       </c>
       <c r="M426" s="2">
-        <v>50968</v>
+        <v>50967.798799999997</v>
       </c>
       <c r="N426" s="2">
-        <v>61372</v>
+        <v>61372.378060000003</v>
       </c>
       <c r="O426" s="2">
-        <v>81341</v>
+        <v>81340.559259999995</v>
       </c>
       <c r="P426" s="2">
-        <v>4555</v>
+        <v>4554.8145599999998</v>
       </c>
       <c r="Q426" s="2">
-        <v>0</v>
+        <v>1235.9906699999999</v>
       </c>
       <c r="R426" s="2">
-        <v>0</v>
+        <v>4852.7704199999998</v>
       </c>
       <c r="S426" s="2">
-        <v>0</v>
+        <v>3865.3002999999999</v>
       </c>
       <c r="T426" s="2">
-        <v>100145</v>
+        <v>100145.44007</v>
       </c>
       <c r="U426" s="2">
-        <v>58986</v>
+        <v>58985.481489999998</v>
       </c>
       <c r="V426" s="2">
-        <v>39</v>
+        <v>38.7562</v>
       </c>
       <c r="W426" s="2">
         <v>311391</v>
       </c>
       <c r="X426" s="2">
-        <v>0</v>
+        <v>19606.930540000001</v>
       </c>
       <c r="Y426" s="2">
-        <v>0</v>
+        <v>114084.6</v>
       </c>
       <c r="Z426" s="2">
-        <v>13128</v>
+        <v>13127.69558</v>
       </c>
       <c r="AA426" s="2">
-        <v>0</v>
+        <v>243183</v>
       </c>
       <c r="AB426" s="2">
-        <v>0</v>
+        <v>750844</v>
       </c>
       <c r="AC426" s="2">
-        <v>0</v>
+        <v>55308</v>
       </c>
       <c r="AD426" s="2">
-        <v>0</v>
+        <v>164111.9</v>
       </c>
       <c r="AE426" s="2">
-        <v>0</v>
+        <v>566612.6</v>
       </c>
       <c r="AF426" s="2">
-        <v>0</v>
+        <v>227128</v>
       </c>
       <c r="AG426" s="2">
-        <v>0</v>
+        <v>71611</v>
       </c>
       <c r="AH426" s="2">
-        <v>0</v>
+        <v>155517</v>
       </c>
       <c r="AI426" s="2">
-        <v>0</v>
+        <v>8.8375000000000004</v>
       </c>
       <c r="AJ426" s="2">
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="AK426" s="2">
-        <v>0</v>
+        <v>133875.40293000001</v>
       </c>
       <c r="AL426" s="2">
-        <v>0</v>
+        <v>2337.0739199999998</v>
       </c>
       <c r="AM426" s="2">
-        <v>1624.8</v>
+        <v>1624.77</v>
       </c>
       <c r="AN426" s="2">
         <v>589.1</v>
       </c>
       <c r="AO426" s="2">
-        <v>0</v>
+        <v>8957.8766300000007</v>
       </c>
       <c r="AP426" s="2">
-        <v>179</v>
+        <v>178.70171999999999</v>
       </c>
       <c r="AQ426" s="2">
-        <v>0</v>
+        <v>1277.16947</v>
       </c>
       <c r="AR426" s="2">
-        <v>24450000</v>
+        <v>24445257.300000001</v>
       </c>
       <c r="AS426" s="2">
-        <v>0</v>
+        <v>19364.095399999998</v>
       </c>
       <c r="AT426" s="2">
-        <v>18552</v>
+        <v>18552.060700000002</v>
       </c>
       <c r="AU426" s="2">
-        <v>0</v>
+        <v>11246.025100000001</v>
       </c>
       <c r="AV426" s="2">
-        <v>0</v>
+        <v>17661.319599999999</v>
       </c>
       <c r="AW426" s="2">
-        <v>0</v>
+        <v>5860.9746999999998</v>
       </c>
       <c r="AX426" s="2">
-        <v>0</v>
+        <v>6142.9276</v>
       </c>
       <c r="AY426" s="2">
-        <v>0</v>
+        <v>1543.123</v>
       </c>
       <c r="AZ426" s="2">
-        <v>0</v>
+        <v>317.2088</v>
       </c>
       <c r="BA426" s="2">
         <v>65381</v>
       </c>
       <c r="BB426" s="2">
-        <v>0</v>
+        <v>80.7</v>
       </c>
       <c r="BC426" s="2">
-        <v>0</v>
+        <v>765</v>
       </c>
       <c r="BD426" s="2">
-        <v>33426</v>
+        <v>33425.5</v>
       </c>
       <c r="BE426" s="2">
-        <v>35814</v>
+        <v>35813.9</v>
       </c>
       <c r="BF426" s="2">
         <v>7188</v>
       </c>
       <c r="BG426" s="2">
-        <v>5437</v>
+        <v>5437.3</v>
       </c>
       <c r="BH426" s="2">
-        <v>2282</v>
+        <v>2281.7932999999998</v>
       </c>
       <c r="BI426" s="2">
-        <v>2518</v>
+        <v>2518.1999999999998</v>
+      </c>
+    </row>
+    <row r="427" spans="1:61">
+      <c r="A427" s="3">
+        <v>45535</v>
+      </c>
+      <c r="B427" s="2">
+        <v>305218</v>
+      </c>
+      <c r="C427" s="2">
+        <v>32478</v>
+      </c>
+      <c r="D427" s="2">
+        <v>62379</v>
+      </c>
+      <c r="E427" s="2">
+        <v>0</v>
+      </c>
+      <c r="F427" s="2">
+        <v>0</v>
+      </c>
+      <c r="G427" s="2">
+        <v>0</v>
+      </c>
+      <c r="H427" s="2">
+        <v>6903</v>
+      </c>
+      <c r="I427" s="2">
+        <v>2143</v>
+      </c>
+      <c r="J427" s="2">
+        <v>0</v>
+      </c>
+      <c r="K427" s="2">
+        <v>5204</v>
+      </c>
+      <c r="L427" s="2">
+        <v>0</v>
+      </c>
+      <c r="M427" s="2">
+        <v>57770</v>
+      </c>
+      <c r="N427" s="2">
+        <v>69141</v>
+      </c>
+      <c r="O427" s="2">
+        <v>92573</v>
+      </c>
+      <c r="P427" s="2">
+        <v>5205</v>
+      </c>
+      <c r="Q427" s="2">
+        <v>0</v>
+      </c>
+      <c r="R427" s="2">
+        <v>0</v>
+      </c>
+      <c r="S427" s="2">
+        <v>0</v>
+      </c>
+      <c r="T427" s="2">
+        <v>115907</v>
+      </c>
+      <c r="U427" s="2">
+        <v>67661</v>
+      </c>
+      <c r="V427" s="2">
+        <v>45</v>
+      </c>
+      <c r="W427" s="2">
+        <v>360592</v>
+      </c>
+      <c r="X427" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y427" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z427" s="2">
+        <v>15483</v>
+      </c>
+      <c r="AA427" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB427" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC427" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD427" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE427" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF427" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG427" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH427" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI427" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ427" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK427" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL427" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM427" s="2">
+        <v>1889.9</v>
+      </c>
+      <c r="AN427" s="2">
+        <v>713.4</v>
+      </c>
+      <c r="AO427" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP427" s="2">
+        <v>213</v>
+      </c>
+      <c r="AQ427" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR427" s="2">
+        <v>28450000</v>
+      </c>
+      <c r="AS427" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT427" s="2">
+        <v>21665</v>
+      </c>
+      <c r="AU427" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV427" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW427" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX427" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY427" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ427" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA427" s="2">
+        <v>75126</v>
+      </c>
+      <c r="BB427" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC427" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD427" s="2">
+        <v>36994</v>
+      </c>
+      <c r="BE427" s="2">
+        <v>41968</v>
+      </c>
+      <c r="BF427" s="2">
+        <v>8822</v>
+      </c>
+      <c r="BG427" s="2">
+        <v>5973</v>
+      </c>
+      <c r="BH427" s="2">
+        <v>2695</v>
+      </c>
+      <c r="BI427" s="2">
+        <v>2920</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/monthly industry stats.xlsx
+++ b/inst/extdata/monthly industry stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C406866-3F77-4D54-8615-394087FEA72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A58A7A1-E94E-4CE0-8682-6CCBB2DD6F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_ Raw Coal_ YTD" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="158">
   <si>
     <t>Name</t>
   </si>
@@ -482,15 +482,6 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1990-01:2024-07</t>
-  </si>
-  <si>
-    <t>1989-02:2024-07</t>
-  </si>
-  <si>
-    <t>2010-01:2024-07</t>
-  </si>
-  <si>
     <t>1989-01:2024-08</t>
   </si>
   <si>
@@ -500,28 +491,10 @@
     <t>1989-02:2024-08</t>
   </si>
   <si>
-    <t>1997-01:2024-07</t>
-  </si>
-  <si>
     <t>2015-12:2024-08</t>
   </si>
   <si>
-    <t>2009-01:2024-07</t>
-  </si>
-  <si>
     <t>2016-02:2024-08</t>
-  </si>
-  <si>
-    <t>2001-12:2024-07</t>
-  </si>
-  <si>
-    <t>1992-01:2024-07</t>
-  </si>
-  <si>
-    <t>2000-05:2024-07</t>
-  </si>
-  <si>
-    <t>2015-02:2024-07</t>
   </si>
   <si>
     <t>2010-01:2024-08</t>
@@ -539,7 +512,25 @@
     <t>2024-09-14</t>
   </si>
   <si>
-    <t>2024-08-16</t>
+    <t>1997-01:2024-08</t>
+  </si>
+  <si>
+    <t>2009-01:2024-08</t>
+  </si>
+  <si>
+    <t>2001-12:2024-08</t>
+  </si>
+  <si>
+    <t>1992-01:2024-08</t>
+  </si>
+  <si>
+    <t>2000-05:2024-08</t>
+  </si>
+  <si>
+    <t>2015-02:2024-08</t>
+  </si>
+  <si>
+    <t>2024-09-19</t>
   </si>
 </sst>
 </file>
@@ -1722,184 +1713,184 @@
         <v>137</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="W6" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="X6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN6" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="AO6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AW6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AX6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AY6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AZ6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="BA6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="BB6" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="BC6" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="BD6" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="J6" s="4" t="s">
+      <c r="BE6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BF6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BG6" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="W6" s="4" t="s">
+      <c r="BH6" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="X6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG6" s="4" t="s">
+      <c r="BI6" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="AH6" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AK6" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AN6" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AP6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AQ6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AR6" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="AS6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AT6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV6" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AW6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AX6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AY6" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AZ6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="BA6" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="BB6" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BC6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="BD6" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="BE6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="BF6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="BG6" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="BH6" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="BI6" s="4" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:61">
@@ -2092,184 +2083,184 @@
         <v>140</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AD8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AE8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AF8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AG8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AH8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AI8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AJ8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AK8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AL8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AM8" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AN8" s="5" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="AO8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AP8" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AQ8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AR8" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AS8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AT8" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AU8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AV8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AW8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AX8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AY8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AZ8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="BA8" s="5" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="BB8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="BC8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="BD8" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="BE8" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="BF8" s="5" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="BG8" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="BH8" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="BI8" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:61">
@@ -79610,181 +79601,181 @@
         <v>305218</v>
       </c>
       <c r="C427" s="2">
-        <v>32478</v>
+        <v>32477.9</v>
       </c>
       <c r="D427" s="2">
-        <v>62379</v>
+        <v>62378.8</v>
       </c>
       <c r="E427" s="2">
-        <v>0</v>
+        <v>10903.9</v>
       </c>
       <c r="F427" s="2">
-        <v>0</v>
+        <v>13383.7</v>
       </c>
       <c r="G427" s="2">
-        <v>0</v>
+        <v>3802.5</v>
       </c>
       <c r="H427" s="2">
-        <v>6903</v>
+        <v>6902.4905099999996</v>
       </c>
       <c r="I427" s="2">
-        <v>2143</v>
+        <v>2142.8983400000002</v>
       </c>
       <c r="J427" s="2">
-        <v>0</v>
+        <v>8626.6744199999994</v>
       </c>
       <c r="K427" s="2">
-        <v>5204</v>
+        <v>5203.7342500000004</v>
       </c>
       <c r="L427" s="2">
-        <v>0</v>
+        <v>4831.4221900000002</v>
       </c>
       <c r="M427" s="2">
-        <v>57770</v>
+        <v>57770.341919999999</v>
       </c>
       <c r="N427" s="2">
-        <v>69141</v>
+        <v>69140.866389999996</v>
       </c>
       <c r="O427" s="2">
-        <v>92573</v>
+        <v>92573.212289999996</v>
       </c>
       <c r="P427" s="2">
-        <v>5205</v>
+        <v>5205.2855200000004</v>
       </c>
       <c r="Q427" s="2">
-        <v>0</v>
+        <v>1437.59997</v>
       </c>
       <c r="R427" s="2">
-        <v>0</v>
+        <v>5588.0652700000001</v>
       </c>
       <c r="S427" s="2">
-        <v>0</v>
+        <v>4445.5975200000003</v>
       </c>
       <c r="T427" s="2">
-        <v>115907</v>
+        <v>115906.71167</v>
       </c>
       <c r="U427" s="2">
-        <v>67661</v>
+        <v>67661.066630000001</v>
       </c>
       <c r="V427" s="2">
-        <v>45</v>
+        <v>44.693300000000001</v>
       </c>
       <c r="W427" s="2">
         <v>360592</v>
       </c>
       <c r="X427" s="2">
-        <v>0</v>
+        <v>22666.667750000001</v>
       </c>
       <c r="Y427" s="2">
-        <v>0</v>
+        <v>127447.1</v>
       </c>
       <c r="Z427" s="2">
-        <v>15483</v>
+        <v>15482.652969999999</v>
       </c>
       <c r="AA427" s="2">
-        <v>0</v>
+        <v>273984</v>
       </c>
       <c r="AB427" s="2">
-        <v>0</v>
+        <v>867899</v>
       </c>
       <c r="AC427" s="2">
-        <v>0</v>
+        <v>60580</v>
       </c>
       <c r="AD427" s="2">
-        <v>0</v>
+        <v>194724.8</v>
       </c>
       <c r="AE427" s="2">
-        <v>0</v>
+        <v>628859.5</v>
       </c>
       <c r="AF427" s="2">
-        <v>0</v>
+        <v>249898</v>
       </c>
       <c r="AG427" s="2">
-        <v>0</v>
+        <v>79649</v>
       </c>
       <c r="AH427" s="2">
-        <v>0</v>
+        <v>170249</v>
       </c>
       <c r="AI427" s="2">
-        <v>0</v>
+        <v>9.7754999999999992</v>
       </c>
       <c r="AJ427" s="2">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="AK427" s="2">
-        <v>0</v>
+        <v>149699.10097</v>
       </c>
       <c r="AL427" s="2">
-        <v>0</v>
+        <v>2650.5907699999998</v>
       </c>
       <c r="AM427" s="2">
-        <v>1889.9</v>
+        <v>1889.8741</v>
       </c>
       <c r="AN427" s="2">
         <v>713.4</v>
       </c>
       <c r="AO427" s="2">
-        <v>0</v>
+        <v>10317.88881</v>
       </c>
       <c r="AP427" s="2">
-        <v>213</v>
+        <v>213.08332999999999</v>
       </c>
       <c r="AQ427" s="2">
-        <v>0</v>
+        <v>1458.4468199999999</v>
       </c>
       <c r="AR427" s="2">
-        <v>28450000</v>
+        <v>28450558</v>
       </c>
       <c r="AS427" s="2">
-        <v>0</v>
+        <v>22471.9215</v>
       </c>
       <c r="AT427" s="2">
-        <v>21665</v>
+        <v>21665.328300000001</v>
       </c>
       <c r="AU427" s="2">
-        <v>0</v>
+        <v>13069.8889</v>
       </c>
       <c r="AV427" s="2">
-        <v>0</v>
+        <v>19139.120500000001</v>
       </c>
       <c r="AW427" s="2">
-        <v>0</v>
+        <v>6781.6175000000003</v>
       </c>
       <c r="AX427" s="2">
-        <v>0</v>
+        <v>7145.9299000000001</v>
       </c>
       <c r="AY427" s="2">
-        <v>0</v>
+        <v>1747.7671</v>
       </c>
       <c r="AZ427" s="2">
-        <v>0</v>
+        <v>309.51530000000002</v>
       </c>
       <c r="BA427" s="2">
         <v>75126</v>
       </c>
       <c r="BB427" s="2">
-        <v>0</v>
+        <v>97.4</v>
       </c>
       <c r="BC427" s="2">
-        <v>0</v>
+        <v>837</v>
       </c>
       <c r="BD427" s="2">
-        <v>36994</v>
+        <v>36994.199999999997</v>
       </c>
       <c r="BE427" s="2">
-        <v>41968</v>
+        <v>41967.7</v>
       </c>
       <c r="BF427" s="2">
         <v>8822</v>
       </c>
       <c r="BG427" s="2">
-        <v>5973</v>
+        <v>5973.5</v>
       </c>
       <c r="BH427" s="2">
-        <v>2695</v>
+        <v>2695.1370000000002</v>
       </c>
       <c r="BI427" s="2">
-        <v>2920</v>
+        <v>2920.4</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/monthly industry stats.xlsx
+++ b/inst/extdata/monthly industry stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A58A7A1-E94E-4CE0-8682-6CCBB2DD6F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8844982B-3103-4E91-8184-0E17F79EC898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -588,10 +588,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -963,9 +963,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:61">

--- a/inst/extdata/monthly industry stats.xlsx
+++ b/inst/extdata/monthly industry stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8844982B-3103-4E91-8184-0E17F79EC898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CC0AAA-BD51-4185-A14E-300CFB63F502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -588,10 +588,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -963,9 +963,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:61">

--- a/inst/extdata/monthly industry stats.xlsx
+++ b/inst/extdata/monthly industry stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CC0AAA-BD51-4185-A14E-300CFB63F502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE57BEB1-D5B4-4AD9-BF2A-357B4C322009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -588,10 +588,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -963,9 +963,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:61">

--- a/inst/extdata/monthly industry stats.xlsx
+++ b/inst/extdata/monthly industry stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE57BEB1-D5B4-4AD9-BF2A-357B4C322009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4776389F-30D8-489B-91BC-7D1B3C8B9DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -588,10 +588,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -963,9 +963,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:61">

--- a/inst/extdata/monthly industry stats.xlsx
+++ b/inst/extdata/monthly industry stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4776389F-30D8-489B-91BC-7D1B3C8B9DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75150F1-8A89-4756-9360-8B828D76E8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -588,10 +588,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -963,9 +963,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:61">

--- a/inst/extdata/monthly industry stats.xlsx
+++ b/inst/extdata/monthly industry stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75150F1-8A89-4756-9360-8B828D76E8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62F7C8F-3285-415C-AF28-6C4BEA9D987A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -588,10 +588,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -963,9 +963,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:61">

--- a/inst/extdata/monthly industry stats.xlsx
+++ b/inst/extdata/monthly industry stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62F7C8F-3285-415C-AF28-6C4BEA9D987A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EF3A02-0EE4-46A8-90DF-6CFC7814B89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -588,10 +588,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -963,9 +963,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:61">

--- a/inst/extdata/monthly industry stats.xlsx
+++ b/inst/extdata/monthly industry stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EF3A02-0EE4-46A8-90DF-6CFC7814B89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFF3B01-E49F-4AF3-B8CA-A4F686A4E777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -588,10 +588,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -963,9 +963,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:61">

--- a/inst/extdata/monthly industry stats.xlsx
+++ b/inst/extdata/monthly industry stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFF3B01-E49F-4AF3-B8CA-A4F686A4E777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7C13AD-F969-4EFF-87C0-DD91CB7F51FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -588,10 +588,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -963,9 +963,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:61">

--- a/inst/extdata/monthly industry stats.xlsx
+++ b/inst/extdata/monthly industry stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7C13AD-F969-4EFF-87C0-DD91CB7F51FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0F2EF5-B0ED-4E85-A388-3D4AB1C9C9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="161">
   <si>
     <t>Name</t>
   </si>
@@ -482,34 +482,13 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1989-01:2024-08</t>
-  </si>
-  <si>
     <t>1990-01:2024-08</t>
   </si>
   <si>
     <t>1989-02:2024-08</t>
   </si>
   <si>
-    <t>2015-12:2024-08</t>
-  </si>
-  <si>
-    <t>2016-02:2024-08</t>
-  </si>
-  <si>
     <t>2010-01:2024-08</t>
-  </si>
-  <si>
-    <t>2009-09:2024-08</t>
-  </si>
-  <si>
-    <t>2016-05:2024-08</t>
-  </si>
-  <si>
-    <t>2001-01:2024-08</t>
-  </si>
-  <si>
-    <t>2024-09-14</t>
   </si>
   <si>
     <t>1997-01:2024-08</t>
@@ -531,6 +510,36 @@
   </si>
   <si>
     <t>2024-09-19</t>
+  </si>
+  <si>
+    <t>1989-01:2024-09</t>
+  </si>
+  <si>
+    <t>1990-01:2024-09</t>
+  </si>
+  <si>
+    <t>1989-02:2024-09</t>
+  </si>
+  <si>
+    <t>2015-12:2024-09</t>
+  </si>
+  <si>
+    <t>2016-02:2024-09</t>
+  </si>
+  <si>
+    <t>2010-01:2024-09</t>
+  </si>
+  <si>
+    <t>2009-09:2024-09</t>
+  </si>
+  <si>
+    <t>2016-05:2024-09</t>
+  </si>
+  <si>
+    <t>2001-01:2024-09</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
   </si>
 </sst>
 </file>
@@ -588,10 +597,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -931,7 +940,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI427"/>
+  <dimension ref="A1:BI428"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G419" sqref="G419"/>
@@ -963,9 +972,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:61">
@@ -1713,184 +1722,184 @@
         <v>137</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF6" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="AG6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI6" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="AJ6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AP6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV6" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AW6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY6" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ6" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="BA6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="BB6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="BC6" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG6" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AH6" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AI6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AJ6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AK6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AN6" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO6" s="4" t="s">
+      <c r="BD6" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="BE6" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AP6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AQ6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AR6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AS6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AT6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AV6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AW6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AY6" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AZ6" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="BA6" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="BB6" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="BC6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="BD6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="BE6" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="BF6" s="4" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="BG6" s="4" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="BH6" s="4" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="BI6" s="4" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:61">
@@ -2083,184 +2092,184 @@
         <v>140</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="W8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="X8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="X8" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="Y8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AD8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AE8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AF8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AG8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AH8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AI8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AJ8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AK8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AL8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AM8" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AN8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AO8" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="AP8" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AQ8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AR8" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AS8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AT8" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AU8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AV8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AW8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AX8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AY8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AZ8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="BA8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="BB8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="BB8" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="BC8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="BD8" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="BE8" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="BF8" s="5" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="BG8" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="BH8" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="BI8" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:61">
@@ -79776,6 +79785,191 @@
       </c>
       <c r="BI427" s="2">
         <v>2920.4</v>
+      </c>
+    </row>
+    <row r="428" spans="1:61">
+      <c r="A428" s="3">
+        <v>45565</v>
+      </c>
+      <c r="B428" s="2">
+        <v>347577</v>
+      </c>
+      <c r="C428" s="2">
+        <v>36440</v>
+      </c>
+      <c r="D428" s="2">
+        <v>70560</v>
+      </c>
+      <c r="E428" s="2">
+        <v>0</v>
+      </c>
+      <c r="F428" s="2">
+        <v>0</v>
+      </c>
+      <c r="G428" s="2">
+        <v>0</v>
+      </c>
+      <c r="H428" s="2">
+        <v>7762</v>
+      </c>
+      <c r="I428" s="2">
+        <v>2410</v>
+      </c>
+      <c r="J428" s="2">
+        <v>0</v>
+      </c>
+      <c r="K428" s="2">
+        <v>5860</v>
+      </c>
+      <c r="L428" s="2">
+        <v>0</v>
+      </c>
+      <c r="M428" s="2">
+        <v>64443</v>
+      </c>
+      <c r="N428" s="2">
+        <v>76848</v>
+      </c>
+      <c r="O428" s="2">
+        <v>104448</v>
+      </c>
+      <c r="P428" s="2">
+        <v>5874</v>
+      </c>
+      <c r="Q428" s="2">
+        <v>0</v>
+      </c>
+      <c r="R428" s="2">
+        <v>0</v>
+      </c>
+      <c r="S428" s="2">
+        <v>0</v>
+      </c>
+      <c r="T428" s="2">
+        <v>132670</v>
+      </c>
+      <c r="U428" s="2">
+        <v>76071</v>
+      </c>
+      <c r="V428" s="2">
+        <v>51</v>
+      </c>
+      <c r="W428" s="2">
+        <v>416319</v>
+      </c>
+      <c r="X428" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y428" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z428" s="2">
+        <v>18476</v>
+      </c>
+      <c r="AA428" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB428" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC428" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD428" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE428" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF428" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG428" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH428" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI428" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ428" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK428" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL428" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM428" s="2">
+        <v>2168.3000000000002</v>
+      </c>
+      <c r="AN428" s="2">
+        <v>843.9</v>
+      </c>
+      <c r="AO428" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP428" s="2">
+        <v>234</v>
+      </c>
+      <c r="AQ428" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR428" s="2">
+        <v>31560000</v>
+      </c>
+      <c r="AS428" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT428" s="2">
+        <v>24901</v>
+      </c>
+      <c r="AU428" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV428" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW428" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX428" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY428" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ428" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA428" s="2">
+        <v>87254</v>
+      </c>
+      <c r="BB428" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC428" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD428" s="2">
+        <v>47809</v>
+      </c>
+      <c r="BE428" s="2">
+        <v>47439</v>
+      </c>
+      <c r="BF428" s="2">
+        <v>10040</v>
+      </c>
+      <c r="BG428" s="2">
+        <v>6733</v>
+      </c>
+      <c r="BH428" s="2">
+        <v>3073</v>
+      </c>
+      <c r="BI428" s="2">
+        <v>3275</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/monthly industry stats.xlsx
+++ b/inst/extdata/monthly industry stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0F2EF5-B0ED-4E85-A388-3D4AB1C9C9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE3FCDD-7C00-4E33-B828-3AD6577EE748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -597,10 +597,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -972,9 +972,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:61">

--- a/inst/extdata/monthly industry stats.xlsx
+++ b/inst/extdata/monthly industry stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE3FCDD-7C00-4E33-B828-3AD6577EE748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF546B6D-CC6C-470D-8B5E-346371A30D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -597,10 +597,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -972,9 +972,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:61">

--- a/inst/extdata/monthly industry stats.xlsx
+++ b/inst/extdata/monthly industry stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9A6547-0050-44FB-8EC7-B479D21B2ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8E4195-9CBD-46FE-81B8-3B77998DC0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -597,10 +597,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -972,9 +972,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:61">

--- a/inst/extdata/monthly industry stats.xlsx
+++ b/inst/extdata/monthly industry stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8E4195-9CBD-46FE-81B8-3B77998DC0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F5DB33-16A8-4CE4-BFB6-6E5F5CC9DE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/inst/extdata/monthly industry stats.xlsx
+++ b/inst/extdata/monthly industry stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F5DB33-16A8-4CE4-BFB6-6E5F5CC9DE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE1A9C4-F64E-4C30-ADDC-EDCBB36AD60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="158">
   <si>
     <t>Name</t>
   </si>
@@ -482,36 +482,6 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1990-01:2024-08</t>
-  </si>
-  <si>
-    <t>1989-02:2024-08</t>
-  </si>
-  <si>
-    <t>2010-01:2024-08</t>
-  </si>
-  <si>
-    <t>1997-01:2024-08</t>
-  </si>
-  <si>
-    <t>2009-01:2024-08</t>
-  </si>
-  <si>
-    <t>2001-12:2024-08</t>
-  </si>
-  <si>
-    <t>1992-01:2024-08</t>
-  </si>
-  <si>
-    <t>2000-05:2024-08</t>
-  </si>
-  <si>
-    <t>2015-02:2024-08</t>
-  </si>
-  <si>
-    <t>2024-09-19</t>
-  </si>
-  <si>
     <t>1989-01:2024-09</t>
   </si>
   <si>
@@ -540,6 +510,27 @@
   </si>
   <si>
     <t>2024-10-18</t>
+  </si>
+  <si>
+    <t>1997-01:2024-09</t>
+  </si>
+  <si>
+    <t>2009-01:2024-09</t>
+  </si>
+  <si>
+    <t>2001-12:2024-09</t>
+  </si>
+  <si>
+    <t>1992-01:2024-09</t>
+  </si>
+  <si>
+    <t>2000-05:2024-09</t>
+  </si>
+  <si>
+    <t>2015-02:2024-09</t>
+  </si>
+  <si>
+    <t>2024-10-22</t>
   </si>
 </sst>
 </file>
@@ -597,10 +588,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -972,9 +963,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:61">
@@ -1722,184 +1713,184 @@
         <v>137</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="K6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG6" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="AH6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO6" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="AP6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR6" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="AS6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV6" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="W6" s="4" t="s">
+      <c r="AW6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AX6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AY6" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="X6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG6" s="4" t="s">
+      <c r="AZ6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="BA6" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="AH6" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AK6" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AN6" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO6" s="4" t="s">
+      <c r="BB6" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="BC6" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="AP6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AQ6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AR6" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AT6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AU6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV6" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AW6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AX6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AY6" s="4" t="s">
+      <c r="BD6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BF6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BG6" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="AZ6" s="4" t="s">
+      <c r="BH6" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="BA6" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="BB6" s="4" t="s">
+      <c r="BI6" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="BC6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="BD6" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="BE6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="BG6" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="BH6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="BI6" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:61">
@@ -2092,184 +2083,184 @@
         <v>140</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="J8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="J8" s="5" t="s">
+      <c r="L8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="L8" s="5" t="s">
+      <c r="N8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="M8" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="O8" s="5" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="Q8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="T8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="U8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="V8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="T8" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="W8" s="5" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="X8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="Y8" s="5" t="s">
+      <c r="AA8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="Z8" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA8" s="5" t="s">
+      <c r="AN8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AB8" s="5" t="s">
+      <c r="AO8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AP8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AC8" s="5" t="s">
+      <c r="AQ8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AD8" s="5" t="s">
+      <c r="AS8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AE8" s="5" t="s">
+      <c r="AU8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AV8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AX8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AY8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AZ8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="BA8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AF8" s="5" t="s">
+      <c r="BB8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="BC8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="BD8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AG8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AJ8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AK8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AM8" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="AN8" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AP8" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="AQ8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AR8" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="AS8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AT8" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="AU8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AV8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AX8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AY8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AZ8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="BA8" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="BB8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="BC8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD8" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="BE8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="BF8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="BG8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="BH8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="BI8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:61">
@@ -79792,22 +79783,22 @@
         <v>45565</v>
       </c>
       <c r="B428" s="2">
-        <v>347577</v>
+        <v>347577.1</v>
       </c>
       <c r="C428" s="2">
-        <v>36440</v>
+        <v>36439.599999999999</v>
       </c>
       <c r="D428" s="2">
-        <v>70560</v>
+        <v>70560.399999999994</v>
       </c>
       <c r="E428" s="2">
-        <v>0</v>
+        <v>12253.4</v>
       </c>
       <c r="F428" s="2">
-        <v>0</v>
+        <v>15079.5</v>
       </c>
       <c r="G428" s="2">
-        <v>0</v>
+        <v>4292.5</v>
       </c>
       <c r="H428" s="2">
         <v>7762</v>
@@ -79816,13 +79807,13 @@
         <v>2410</v>
       </c>
       <c r="J428" s="2">
-        <v>0</v>
+        <v>9466.8345399999998</v>
       </c>
       <c r="K428" s="2">
         <v>5860</v>
       </c>
       <c r="L428" s="2">
-        <v>0</v>
+        <v>5577.4752500000004</v>
       </c>
       <c r="M428" s="2">
         <v>64443</v>
@@ -79837,13 +79828,13 @@
         <v>5874</v>
       </c>
       <c r="Q428" s="2">
-        <v>0</v>
+        <v>1632.9358099999999</v>
       </c>
       <c r="R428" s="2">
-        <v>0</v>
+        <v>6312.7846300000001</v>
       </c>
       <c r="S428" s="2">
-        <v>0</v>
+        <v>5035.4916800000001</v>
       </c>
       <c r="T428" s="2">
         <v>132670</v>
@@ -79858,49 +79849,49 @@
         <v>416319</v>
       </c>
       <c r="X428" s="2">
-        <v>0</v>
+        <v>25899.732319999999</v>
       </c>
       <c r="Y428" s="2">
-        <v>0</v>
+        <v>148138.20000000001</v>
       </c>
       <c r="Z428" s="2">
         <v>18476</v>
       </c>
       <c r="AA428" s="2">
-        <v>0</v>
+        <v>307790</v>
       </c>
       <c r="AB428" s="2">
-        <v>0</v>
+        <v>1058423</v>
       </c>
       <c r="AC428" s="2">
-        <v>0</v>
+        <v>64620</v>
       </c>
       <c r="AD428" s="2">
-        <v>0</v>
+        <v>222004.3</v>
       </c>
       <c r="AE428" s="2">
-        <v>0</v>
+        <v>700216.8</v>
       </c>
       <c r="AF428" s="2">
-        <v>0</v>
+        <v>272991</v>
       </c>
       <c r="AG428" s="2">
-        <v>0</v>
+        <v>90070</v>
       </c>
       <c r="AH428" s="2">
-        <v>0</v>
+        <v>182921</v>
       </c>
       <c r="AI428" s="2">
-        <v>0</v>
+        <v>10.991899999999999</v>
       </c>
       <c r="AJ428" s="2">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="AK428" s="2">
-        <v>0</v>
+        <v>168648.32574999999</v>
       </c>
       <c r="AL428" s="2">
-        <v>0</v>
+        <v>2971.1528800000001</v>
       </c>
       <c r="AM428" s="2">
         <v>2168.3000000000002</v>
@@ -79909,67 +79900,67 @@
         <v>843.9</v>
       </c>
       <c r="AO428" s="2">
-        <v>0</v>
+        <v>11632.890009999999</v>
       </c>
       <c r="AP428" s="2">
         <v>234</v>
       </c>
       <c r="AQ428" s="2">
-        <v>0</v>
+        <v>1655.2013999999999</v>
       </c>
       <c r="AR428" s="2">
         <v>31560000</v>
       </c>
       <c r="AS428" s="2">
-        <v>0</v>
+        <v>25850.123100000001</v>
       </c>
       <c r="AT428" s="2">
         <v>24901</v>
       </c>
       <c r="AU428" s="2">
-        <v>0</v>
+        <v>15008.736500000001</v>
       </c>
       <c r="AV428" s="2">
-        <v>0</v>
+        <v>21028.602599999998</v>
       </c>
       <c r="AW428" s="2">
-        <v>0</v>
+        <v>7742.1221999999998</v>
       </c>
       <c r="AX428" s="2">
-        <v>0</v>
+        <v>8242.7212999999992</v>
       </c>
       <c r="AY428" s="2">
-        <v>0</v>
+        <v>2002.7566999999999</v>
       </c>
       <c r="AZ428" s="2">
-        <v>0</v>
+        <v>329.47449999999998</v>
       </c>
       <c r="BA428" s="2">
         <v>87254</v>
       </c>
       <c r="BB428" s="2">
-        <v>0</v>
+        <v>110.7</v>
       </c>
       <c r="BC428" s="2">
-        <v>0</v>
+        <v>1373</v>
       </c>
       <c r="BD428" s="2">
         <v>47809</v>
       </c>
       <c r="BE428" s="2">
-        <v>47439</v>
+        <v>47438.8</v>
       </c>
       <c r="BF428" s="2">
-        <v>10040</v>
+        <v>10039.700000000001</v>
       </c>
       <c r="BG428" s="2">
-        <v>6733</v>
+        <v>6733.2</v>
       </c>
       <c r="BH428" s="2">
-        <v>3073</v>
+        <v>3073.1179999999999</v>
       </c>
       <c r="BI428" s="2">
-        <v>3275</v>
+        <v>3275.5</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/monthly industry stats.xlsx
+++ b/inst/extdata/monthly industry stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE1A9C4-F64E-4C30-ADDC-EDCBB36AD60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A93B987-4D2E-4DE8-8A28-03F3A4AA32B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1560" windowWidth="18000" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_ Raw Coal_ YTD" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="161">
   <si>
     <t>Name</t>
   </si>
@@ -482,34 +482,13 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1989-01:2024-09</t>
-  </si>
-  <si>
     <t>1990-01:2024-09</t>
   </si>
   <si>
     <t>1989-02:2024-09</t>
   </si>
   <si>
-    <t>2015-12:2024-09</t>
-  </si>
-  <si>
-    <t>2016-02:2024-09</t>
-  </si>
-  <si>
     <t>2010-01:2024-09</t>
-  </si>
-  <si>
-    <t>2009-09:2024-09</t>
-  </si>
-  <si>
-    <t>2016-05:2024-09</t>
-  </si>
-  <si>
-    <t>2001-01:2024-09</t>
-  </si>
-  <si>
-    <t>2024-10-18</t>
   </si>
   <si>
     <t>1997-01:2024-09</t>
@@ -531,6 +510,36 @@
   </si>
   <si>
     <t>2024-10-22</t>
+  </si>
+  <si>
+    <t>1989-01:2024-10</t>
+  </si>
+  <si>
+    <t>1990-01:2024-10</t>
+  </si>
+  <si>
+    <t>1989-02:2024-10</t>
+  </si>
+  <si>
+    <t>2015-12:2024-10</t>
+  </si>
+  <si>
+    <t>2016-02:2024-10</t>
+  </si>
+  <si>
+    <t>2010-01:2024-10</t>
+  </si>
+  <si>
+    <t>2009-09:2024-10</t>
+  </si>
+  <si>
+    <t>2016-05:2024-10</t>
+  </si>
+  <si>
+    <t>2001-01:2024-10</t>
+  </si>
+  <si>
+    <t>2024-11-15</t>
   </si>
 </sst>
 </file>
@@ -931,7 +940,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI428"/>
+  <dimension ref="A1:BI429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G419" sqref="G419"/>
@@ -949,7 +958,9 @@
     <col min="24" max="24" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="30" max="31" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="32" max="34" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -1713,184 +1724,184 @@
         <v>137</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF6" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="AG6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI6" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="AJ6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AP6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV6" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AW6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY6" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ6" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="BA6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="BB6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="BC6" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG6" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AH6" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AI6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AJ6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AK6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AN6" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO6" s="4" t="s">
+      <c r="BD6" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="BE6" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AP6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AQ6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AR6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AS6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AT6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AV6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AW6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AY6" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AZ6" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="BA6" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="BB6" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="BC6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="BD6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="BE6" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="BF6" s="4" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="BG6" s="4" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="BH6" s="4" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="BI6" s="4" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:61">
@@ -2083,184 +2094,184 @@
         <v>140</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="K8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="K8" s="5" t="s">
+      <c r="M8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="M8" s="5" t="s">
+      <c r="R8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="S8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="T8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="X8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="Y8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="Q8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="T8" s="5" t="s">
+      <c r="Z8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="U8" s="5" t="s">
+      <c r="AB8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="V8" s="5" t="s">
+      <c r="AC8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="W8" s="5" t="s">
+      <c r="AD8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="X8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z8" s="5" t="s">
+      <c r="AE8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AA8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE8" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="AF8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AG8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AH8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AI8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AJ8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AK8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AL8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AM8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AN8" s="5" t="s">
+      <c r="AP8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AO8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="AP8" s="5" t="s">
+      <c r="AR8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AQ8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR8" s="5" t="s">
+      <c r="AT8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AU8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AS8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="AT8" s="5" t="s">
+      <c r="AV8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AU8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="AV8" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="AW8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AX8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AY8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AZ8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="BA8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="BB8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="BB8" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="BC8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="BD8" s="5" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="BE8" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="BF8" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="BG8" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="BH8" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="BI8" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:61">
@@ -79961,6 +79972,191 @@
       </c>
       <c r="BI428" s="2">
         <v>3275.5</v>
+      </c>
+    </row>
+    <row r="429" spans="1:61">
+      <c r="A429" s="3">
+        <v>45596</v>
+      </c>
+      <c r="B429" s="2">
+        <v>389207</v>
+      </c>
+      <c r="C429" s="2">
+        <v>40571</v>
+      </c>
+      <c r="D429" s="2">
+        <v>78027</v>
+      </c>
+      <c r="E429" s="2">
+        <v>0</v>
+      </c>
+      <c r="F429" s="2">
+        <v>0</v>
+      </c>
+      <c r="G429" s="2">
+        <v>0</v>
+      </c>
+      <c r="H429" s="2">
+        <v>8593</v>
+      </c>
+      <c r="I429" s="2">
+        <v>2683</v>
+      </c>
+      <c r="J429" s="2">
+        <v>0</v>
+      </c>
+      <c r="K429" s="2">
+        <v>6564</v>
+      </c>
+      <c r="L429" s="2">
+        <v>0</v>
+      </c>
+      <c r="M429" s="2">
+        <v>71511</v>
+      </c>
+      <c r="N429" s="2">
+        <v>85073</v>
+      </c>
+      <c r="O429" s="2">
+        <v>116484</v>
+      </c>
+      <c r="P429" s="2">
+        <v>6541</v>
+      </c>
+      <c r="Q429" s="2">
+        <v>0</v>
+      </c>
+      <c r="R429" s="2">
+        <v>0</v>
+      </c>
+      <c r="S429" s="2">
+        <v>0</v>
+      </c>
+      <c r="T429" s="2">
+        <v>150116</v>
+      </c>
+      <c r="U429" s="2">
+        <v>83945</v>
+      </c>
+      <c r="V429" s="2">
+        <v>57</v>
+      </c>
+      <c r="W429" s="2">
+        <v>465684</v>
+      </c>
+      <c r="X429" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y429" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z429" s="2">
+        <v>21045</v>
+      </c>
+      <c r="AA429" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB429" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC429" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD429" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE429" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF429" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG429" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH429" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI429" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ429" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK429" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL429" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM429" s="2">
+        <v>2466.1</v>
+      </c>
+      <c r="AN429" s="2">
+        <v>990</v>
+      </c>
+      <c r="AO429" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP429" s="2">
+        <v>260</v>
+      </c>
+      <c r="AQ429" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR429" s="2">
+        <v>35300000</v>
+      </c>
+      <c r="AS429" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT429" s="2">
+        <v>27770</v>
+      </c>
+      <c r="AU429" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV429" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW429" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX429" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY429" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ429" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA429" s="2">
+        <v>99030</v>
+      </c>
+      <c r="BB429" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC429" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD429" s="2">
+        <v>54343</v>
+      </c>
+      <c r="BE429" s="2">
+        <v>52230</v>
+      </c>
+      <c r="BF429" s="2">
+        <v>11101</v>
+      </c>
+      <c r="BG429" s="2">
+        <v>7581</v>
+      </c>
+      <c r="BH429" s="2">
+        <v>3472</v>
+      </c>
+      <c r="BI429" s="2">
+        <v>3643</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/monthly industry stats.xlsx
+++ b/inst/extdata/monthly industry stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A93B987-4D2E-4DE8-8A28-03F3A4AA32B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADDC0D2-5572-4B01-946A-34CC066AA0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1560" windowWidth="18000" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_ Raw Coal_ YTD" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="160">
   <si>
     <t>Name</t>
   </si>
@@ -482,36 +482,6 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1990-01:2024-09</t>
-  </si>
-  <si>
-    <t>1989-02:2024-09</t>
-  </si>
-  <si>
-    <t>2010-01:2024-09</t>
-  </si>
-  <si>
-    <t>1997-01:2024-09</t>
-  </si>
-  <si>
-    <t>2009-01:2024-09</t>
-  </si>
-  <si>
-    <t>2001-12:2024-09</t>
-  </si>
-  <si>
-    <t>1992-01:2024-09</t>
-  </si>
-  <si>
-    <t>2000-05:2024-09</t>
-  </si>
-  <si>
-    <t>2015-02:2024-09</t>
-  </si>
-  <si>
-    <t>2024-10-22</t>
-  </si>
-  <si>
     <t>1989-01:2024-10</t>
   </si>
   <si>
@@ -521,10 +491,28 @@
     <t>1989-02:2024-10</t>
   </si>
   <si>
+    <t>1997-01:2024-10</t>
+  </si>
+  <si>
     <t>2015-12:2024-10</t>
   </si>
   <si>
+    <t>2009-01:2024-10</t>
+  </si>
+  <si>
     <t>2016-02:2024-10</t>
+  </si>
+  <si>
+    <t>2001-12:2024-10</t>
+  </si>
+  <si>
+    <t>1992-01:2024-10</t>
+  </si>
+  <si>
+    <t>2000-05:2024-10</t>
+  </si>
+  <si>
+    <t>2015-02:2024-10</t>
   </si>
   <si>
     <t>2010-01:2024-10</t>
@@ -537,6 +525,15 @@
   </si>
   <si>
     <t>2001-01:2024-10</t>
+  </si>
+  <si>
+    <t>2024-11-19</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>2024-11-21</t>
   </si>
   <si>
     <t>2024-11-15</t>
@@ -1724,79 +1721,79 @@
         <v>137</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>144</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="AA6" s="4" t="s">
         <v>144</v>
@@ -1814,94 +1811,94 @@
         <v>144</v>
       </c>
       <c r="AF6" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG6" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AI6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK6" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="AJ6" s="4" t="s">
+      <c r="AL6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO6" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR6" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="AK6" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL6" s="4" t="s">
+      <c r="AS6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV6" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="AM6" s="4" t="s">
+      <c r="AW6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AX6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AY6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AZ6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="BA6" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BB6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="BC6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="BD6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="BE6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BF6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BG6" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AN6" s="4" t="s">
+      <c r="BH6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="BI6" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="AO6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AP6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AQ6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AR6" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AT6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AU6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV6" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AW6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AX6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AY6" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ6" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="BA6" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="BB6" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="BC6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="BD6" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="BE6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="BG6" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="BH6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="BI6" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:61">
@@ -2094,184 +2091,184 @@
         <v>140</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AD8" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AE8" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AF8" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AG8" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AH8" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AI8" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AJ8" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AK8" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AL8" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AM8" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AN8" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AO8" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AP8" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AQ8" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AR8" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AS8" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AT8" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AU8" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AV8" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AW8" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AX8" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AY8" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AZ8" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="BA8" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BB8" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="BC8" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="BD8" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BE8" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="BF8" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="BG8" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="BH8" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="BI8" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:61">
@@ -79812,31 +79809,31 @@
         <v>4292.5</v>
       </c>
       <c r="H428" s="2">
-        <v>7762</v>
+        <v>7761.8740399999997</v>
       </c>
       <c r="I428" s="2">
-        <v>2410</v>
+        <v>2409.6774999999998</v>
       </c>
       <c r="J428" s="2">
         <v>9466.8345399999998</v>
       </c>
       <c r="K428" s="2">
-        <v>5860</v>
+        <v>5859.9590200000002</v>
       </c>
       <c r="L428" s="2">
         <v>5577.4752500000004</v>
       </c>
       <c r="M428" s="2">
-        <v>64443</v>
+        <v>64443.348870000002</v>
       </c>
       <c r="N428" s="2">
-        <v>76848</v>
+        <v>76847.740909999993</v>
       </c>
       <c r="O428" s="2">
-        <v>104448</v>
+        <v>104447.97616999999</v>
       </c>
       <c r="P428" s="2">
-        <v>5874</v>
+        <v>5874.1203400000004</v>
       </c>
       <c r="Q428" s="2">
         <v>1632.9358099999999</v>
@@ -79848,13 +79845,13 @@
         <v>5035.4916800000001</v>
       </c>
       <c r="T428" s="2">
-        <v>132670</v>
+        <v>132669.82897999999</v>
       </c>
       <c r="U428" s="2">
-        <v>76071</v>
+        <v>76071.134829999995</v>
       </c>
       <c r="V428" s="2">
-        <v>51</v>
+        <v>50.558399999999999</v>
       </c>
       <c r="W428" s="2">
         <v>416319</v>
@@ -79866,7 +79863,7 @@
         <v>148138.20000000001</v>
       </c>
       <c r="Z428" s="2">
-        <v>18476</v>
+        <v>18475.780620000001</v>
       </c>
       <c r="AA428" s="2">
         <v>307790</v>
@@ -79905,7 +79902,7 @@
         <v>2971.1528800000001</v>
       </c>
       <c r="AM428" s="2">
-        <v>2168.3000000000002</v>
+        <v>2168.2968999999998</v>
       </c>
       <c r="AN428" s="2">
         <v>843.9</v>
@@ -79914,19 +79911,19 @@
         <v>11632.890009999999</v>
       </c>
       <c r="AP428" s="2">
-        <v>234</v>
+        <v>234.35684000000001</v>
       </c>
       <c r="AQ428" s="2">
         <v>1655.2013999999999</v>
       </c>
       <c r="AR428" s="2">
-        <v>31560000</v>
+        <v>31560230</v>
       </c>
       <c r="AS428" s="2">
         <v>25850.123100000001</v>
       </c>
       <c r="AT428" s="2">
-        <v>24901</v>
+        <v>24900.589800000002</v>
       </c>
       <c r="AU428" s="2">
         <v>15008.736500000001</v>
@@ -79956,7 +79953,7 @@
         <v>1373</v>
       </c>
       <c r="BD428" s="2">
-        <v>47809</v>
+        <v>47809.1</v>
       </c>
       <c r="BE428" s="2">
         <v>47438.8</v>
@@ -79979,184 +79976,184 @@
         <v>45596</v>
       </c>
       <c r="B429" s="2">
-        <v>389207</v>
+        <v>389206.7</v>
       </c>
       <c r="C429" s="2">
-        <v>40571</v>
+        <v>40570.800000000003</v>
       </c>
       <c r="D429" s="2">
-        <v>78027</v>
+        <v>78027.199999999997</v>
       </c>
       <c r="E429" s="2">
-        <v>0</v>
+        <v>13567.7</v>
       </c>
       <c r="F429" s="2">
-        <v>0</v>
+        <v>16829.3</v>
       </c>
       <c r="G429" s="2">
-        <v>0</v>
+        <v>4742.3999999999996</v>
       </c>
       <c r="H429" s="2">
-        <v>8593</v>
+        <v>8592.8705000000009</v>
       </c>
       <c r="I429" s="2">
-        <v>2683</v>
+        <v>2683.1943200000001</v>
       </c>
       <c r="J429" s="2">
-        <v>0</v>
+        <v>10606.22531</v>
       </c>
       <c r="K429" s="2">
-        <v>6564</v>
+        <v>6564.2763500000001</v>
       </c>
       <c r="L429" s="2">
-        <v>0</v>
+        <v>6297.0556299999998</v>
       </c>
       <c r="M429" s="2">
-        <v>71511</v>
+        <v>71511.359460000007</v>
       </c>
       <c r="N429" s="2">
-        <v>85073</v>
+        <v>85073.067590000006</v>
       </c>
       <c r="O429" s="2">
-        <v>116484</v>
+        <v>116484.22396</v>
       </c>
       <c r="P429" s="2">
-        <v>6541</v>
+        <v>6540.4858100000001</v>
       </c>
       <c r="Q429" s="2">
-        <v>0</v>
+        <v>1827.4148600000001</v>
       </c>
       <c r="R429" s="2">
-        <v>0</v>
+        <v>7068.9591600000003</v>
       </c>
       <c r="S429" s="2">
-        <v>0</v>
+        <v>5611.4803700000002</v>
       </c>
       <c r="T429" s="2">
-        <v>150116</v>
+        <v>150115.96653000001</v>
       </c>
       <c r="U429" s="2">
-        <v>83945</v>
+        <v>83945.397920000003</v>
       </c>
       <c r="V429" s="2">
-        <v>57</v>
+        <v>56.685499999999998</v>
       </c>
       <c r="W429" s="2">
         <v>465684</v>
       </c>
       <c r="X429" s="2">
-        <v>0</v>
+        <v>28674.949079999999</v>
       </c>
       <c r="Y429" s="2">
-        <v>0</v>
+        <v>165941.6</v>
       </c>
       <c r="Z429" s="2">
-        <v>21045</v>
+        <v>21045.191139999999</v>
       </c>
       <c r="AA429" s="2">
-        <v>0</v>
+        <v>342297</v>
       </c>
       <c r="AB429" s="2">
-        <v>0</v>
+        <v>1254995</v>
       </c>
       <c r="AC429" s="2">
-        <v>0</v>
+        <v>70963</v>
       </c>
       <c r="AD429" s="2">
-        <v>0</v>
+        <v>248853.8</v>
       </c>
       <c r="AE429" s="2">
-        <v>0</v>
+        <v>767114.2</v>
       </c>
       <c r="AF429" s="2">
-        <v>0</v>
+        <v>293677</v>
       </c>
       <c r="AG429" s="2">
-        <v>0</v>
+        <v>97159</v>
       </c>
       <c r="AH429" s="2">
-        <v>0</v>
+        <v>196518</v>
       </c>
       <c r="AI429" s="2">
-        <v>0</v>
+        <v>12.2432</v>
       </c>
       <c r="AJ429" s="2">
-        <v>0</v>
+        <v>615</v>
       </c>
       <c r="AK429" s="2">
-        <v>0</v>
+        <v>190293.35320000001</v>
       </c>
       <c r="AL429" s="2">
-        <v>0</v>
+        <v>3326.6977000000002</v>
       </c>
       <c r="AM429" s="2">
-        <v>2466.1</v>
+        <v>2466.0686000000001</v>
       </c>
       <c r="AN429" s="2">
         <v>990</v>
       </c>
       <c r="AO429" s="2">
-        <v>0</v>
+        <v>12993.9241</v>
       </c>
       <c r="AP429" s="2">
-        <v>260</v>
+        <v>260.26341000000002</v>
       </c>
       <c r="AQ429" s="2">
-        <v>0</v>
+        <v>1854.44984</v>
       </c>
       <c r="AR429" s="2">
-        <v>35300000</v>
+        <v>35299936</v>
       </c>
       <c r="AS429" s="2">
-        <v>0</v>
+        <v>28838.543000000001</v>
       </c>
       <c r="AT429" s="2">
-        <v>27770</v>
+        <v>27770.185300000001</v>
       </c>
       <c r="AU429" s="2">
-        <v>0</v>
+        <v>16759.3966</v>
       </c>
       <c r="AV429" s="2">
-        <v>0</v>
+        <v>22480.890899999999</v>
       </c>
       <c r="AW429" s="2">
-        <v>0</v>
+        <v>8727.6450000000004</v>
       </c>
       <c r="AX429" s="2">
-        <v>0</v>
+        <v>9345.4886000000006</v>
       </c>
       <c r="AY429" s="2">
-        <v>0</v>
+        <v>2244.0432000000001</v>
       </c>
       <c r="AZ429" s="2">
-        <v>0</v>
+        <v>356.43340000000001</v>
       </c>
       <c r="BA429" s="2">
         <v>99030</v>
       </c>
       <c r="BB429" s="2">
-        <v>0</v>
+        <v>121.8</v>
       </c>
       <c r="BC429" s="2">
-        <v>0</v>
+        <v>1414</v>
       </c>
       <c r="BD429" s="2">
         <v>54343</v>
       </c>
       <c r="BE429" s="2">
-        <v>52230</v>
+        <v>52230.5</v>
       </c>
       <c r="BF429" s="2">
-        <v>11101</v>
+        <v>11100.7</v>
       </c>
       <c r="BG429" s="2">
-        <v>7581</v>
+        <v>7580.9</v>
       </c>
       <c r="BH429" s="2">
-        <v>3472</v>
+        <v>3472.1931</v>
       </c>
       <c r="BI429" s="2">
-        <v>3643</v>
+        <v>3642.8</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/monthly industry stats.xlsx
+++ b/inst/extdata/monthly industry stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADDC0D2-5572-4B01-946A-34CC066AA0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0A2999-6CD5-4C34-B060-8DB13E421B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_ Raw Coal_ YTD" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="162">
   <si>
     <t>Name</t>
   </si>
@@ -482,9 +482,6 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1989-01:2024-10</t>
-  </si>
-  <si>
     <t>1990-01:2024-10</t>
   </si>
   <si>
@@ -494,13 +491,7 @@
     <t>1997-01:2024-10</t>
   </si>
   <si>
-    <t>2015-12:2024-10</t>
-  </si>
-  <si>
     <t>2009-01:2024-10</t>
-  </si>
-  <si>
-    <t>2016-02:2024-10</t>
   </si>
   <si>
     <t>2001-12:2024-10</t>
@@ -518,25 +509,40 @@
     <t>2010-01:2024-10</t>
   </si>
   <si>
-    <t>2009-09:2024-10</t>
-  </si>
-  <si>
-    <t>2016-05:2024-10</t>
-  </si>
-  <si>
-    <t>2001-01:2024-10</t>
-  </si>
-  <si>
     <t>2024-11-19</t>
   </si>
   <si>
     <t>2024-11-18</t>
   </si>
   <si>
-    <t>2024-11-21</t>
+    <t>1989-01:2024-11</t>
   </si>
   <si>
-    <t>2024-11-15</t>
+    <t>1990-01:2024-11</t>
+  </si>
+  <si>
+    <t>1989-02:2024-11</t>
+  </si>
+  <si>
+    <t>2015-12:2024-11</t>
+  </si>
+  <si>
+    <t>2016-02:2024-11</t>
+  </si>
+  <si>
+    <t>2010-01:2024-11</t>
+  </si>
+  <si>
+    <t>2009-09:2024-11</t>
+  </si>
+  <si>
+    <t>2016-05:2024-11</t>
+  </si>
+  <si>
+    <t>2001-01:2024-11</t>
+  </si>
+  <si>
+    <t>2024-12-16</t>
   </si>
 </sst>
 </file>
@@ -937,9 +943,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI429"/>
+  <dimension ref="A1:BI430"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
       <selection activeCell="G419" sqref="G419"/>
     </sheetView>
   </sheetViews>
@@ -1721,184 +1727,184 @@
         <v>137</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF6" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="AG6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI6" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="W6" s="4" t="s">
+      <c r="AJ6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AO6" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="X6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF6" s="4" t="s">
+      <c r="AP6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="AG6" s="4" t="s">
+      <c r="AR6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AS6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV6" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AW6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY6" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="AH6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AJ6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AK6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AN6" s="4" t="s">
+      <c r="AZ6" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="AO6" s="4" t="s">
+      <c r="BA6" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="BB6" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="AP6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AQ6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AR6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AS6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AT6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AV6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AW6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AY6" s="4" t="s">
+      <c r="BC6" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="AZ6" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="BA6" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BB6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="BC6" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="BD6" s="4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="BE6" s="4" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="BF6" s="4" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="BG6" s="4" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="BH6" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="BI6" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:61">
@@ -2091,184 +2097,184 @@
         <v>140</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AD8" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AE8" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AF8" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AG8" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AH8" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AI8" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AJ8" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AK8" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AL8" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AM8" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AN8" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AO8" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AP8" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AQ8" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AR8" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AS8" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AT8" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AU8" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AV8" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AW8" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AX8" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AY8" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AZ8" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="BA8" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="BB8" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="BC8" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="BD8" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="BE8" s="5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="BF8" s="5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="BG8" s="5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="BH8" s="5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="BI8" s="5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:61">
@@ -80154,6 +80160,191 @@
       </c>
       <c r="BI429" s="2">
         <v>3642.8</v>
+      </c>
+    </row>
+    <row r="430" spans="1:61">
+      <c r="A430" s="3">
+        <v>45626</v>
+      </c>
+      <c r="B430" s="2">
+        <v>432194</v>
+      </c>
+      <c r="C430" s="2">
+        <v>44671</v>
+      </c>
+      <c r="D430" s="2">
+        <v>85687</v>
+      </c>
+      <c r="E430" s="2">
+        <v>0</v>
+      </c>
+      <c r="F430" s="2">
+        <v>0</v>
+      </c>
+      <c r="G430" s="2">
+        <v>0</v>
+      </c>
+      <c r="H430" s="2">
+        <v>9500</v>
+      </c>
+      <c r="I430" s="2">
+        <v>3108</v>
+      </c>
+      <c r="J430" s="2">
+        <v>0</v>
+      </c>
+      <c r="K430" s="2">
+        <v>7218</v>
+      </c>
+      <c r="L430" s="2">
+        <v>0</v>
+      </c>
+      <c r="M430" s="2">
+        <v>78277</v>
+      </c>
+      <c r="N430" s="2">
+        <v>92919</v>
+      </c>
+      <c r="O430" s="2">
+        <v>128304</v>
+      </c>
+      <c r="P430" s="2">
+        <v>7229</v>
+      </c>
+      <c r="Q430" s="2">
+        <v>0</v>
+      </c>
+      <c r="R430" s="2">
+        <v>0</v>
+      </c>
+      <c r="S430" s="2">
+        <v>0</v>
+      </c>
+      <c r="T430" s="2">
+        <v>167068</v>
+      </c>
+      <c r="U430" s="2">
+        <v>90973</v>
+      </c>
+      <c r="V430" s="2">
+        <v>61</v>
+      </c>
+      <c r="W430" s="2">
+        <v>483884</v>
+      </c>
+      <c r="X430" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y430" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z430" s="2">
+        <v>24115</v>
+      </c>
+      <c r="AA430" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB430" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC430" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD430" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE430" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF430" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG430" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH430" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI430" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ430" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK430" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL430" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM430" s="2">
+        <v>2810.6</v>
+      </c>
+      <c r="AN430" s="2">
+        <v>1148.9000000000001</v>
+      </c>
+      <c r="AO430" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP430" s="2">
+        <v>282</v>
+      </c>
+      <c r="AQ430" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR430" s="2">
+        <v>39530000</v>
+      </c>
+      <c r="AS430" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT430" s="2">
+        <v>30554</v>
+      </c>
+      <c r="AU430" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV430" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW430" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX430" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY430" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ430" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA430" s="2">
+        <v>111691</v>
+      </c>
+      <c r="BB430" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC430" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD430" s="2">
+        <v>61855</v>
+      </c>
+      <c r="BE430" s="2">
+        <v>57442</v>
+      </c>
+      <c r="BF430" s="2">
+        <v>11926</v>
+      </c>
+      <c r="BG430" s="2">
+        <v>8438</v>
+      </c>
+      <c r="BH430" s="2">
+        <v>3856</v>
+      </c>
+      <c r="BI430" s="2">
+        <v>4025</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/monthly industry stats.xlsx
+++ b/inst/extdata/monthly industry stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0A2999-6CD5-4C34-B060-8DB13E421B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE94443A-FE47-4D4E-8255-D5E1222DCEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_ Raw Coal_ YTD" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="163">
   <si>
     <t>Name</t>
   </si>
@@ -544,6 +544,9 @@
   <si>
     <t>2024-12-16</t>
   </si>
+  <si>
+    <t>error:errcode:1008</t>
+  </si>
 </sst>
 </file>
 
@@ -600,10 +603,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -981,6 +984,9 @@
         <f>[1]!edb()</f>
         <v>Wind</v>
       </c>
+      <c r="B1" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="2" spans="1:61">
       <c r="A2" s="4" t="s">

--- a/inst/extdata/monthly industry stats.xlsx
+++ b/inst/extdata/monthly industry stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE94443A-FE47-4D4E-8255-D5E1222DCEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3407089-E531-46C9-B97C-C3F32F0F96E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="158">
   <si>
     <t>Name</t>
   </si>
@@ -482,39 +482,6 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1990-01:2024-10</t>
-  </si>
-  <si>
-    <t>1989-02:2024-10</t>
-  </si>
-  <si>
-    <t>1997-01:2024-10</t>
-  </si>
-  <si>
-    <t>2009-01:2024-10</t>
-  </si>
-  <si>
-    <t>2001-12:2024-10</t>
-  </si>
-  <si>
-    <t>1992-01:2024-10</t>
-  </si>
-  <si>
-    <t>2000-05:2024-10</t>
-  </si>
-  <si>
-    <t>2015-02:2024-10</t>
-  </si>
-  <si>
-    <t>2010-01:2024-10</t>
-  </si>
-  <si>
-    <t>2024-11-19</t>
-  </si>
-  <si>
-    <t>2024-11-18</t>
-  </si>
-  <si>
     <t>1989-01:2024-11</t>
   </si>
   <si>
@@ -545,7 +512,25 @@
     <t>2024-12-16</t>
   </si>
   <si>
-    <t>error:errcode:1008</t>
+    <t>1997-01:2024-11</t>
+  </si>
+  <si>
+    <t>2009-01:2024-11</t>
+  </si>
+  <si>
+    <t>2001-12:2024-11</t>
+  </si>
+  <si>
+    <t>1992-01:2024-11</t>
+  </si>
+  <si>
+    <t>2000-05:2024-11</t>
+  </si>
+  <si>
+    <t>2015-02:2024-11</t>
+  </si>
+  <si>
+    <t>2024-12-18</t>
   </si>
 </sst>
 </file>
@@ -603,10 +588,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -984,9 +969,6 @@
         <f>[1]!edb()</f>
         <v>Wind</v>
       </c>
-      <c r="B1" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="2" spans="1:61">
       <c r="A2" s="4" t="s">
@@ -1733,184 +1715,184 @@
         <v>137</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG6" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="AH6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO6" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="AP6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AW6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AX6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AY6" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="J6" s="4" t="s">
+      <c r="AZ6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="BA6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="BB6" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="BC6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BD6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE6" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA6" s="4" t="s">
+      <c r="BF6" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AB6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AK6" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM6" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AN6" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="AO6" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="AP6" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AQ6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AR6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AS6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AT6" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV6" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AW6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AX6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AY6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AZ6" s="4" t="s">
+      <c r="BG6" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="BA6" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="BB6" s="4" t="s">
+      <c r="BH6" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="BC6" s="4" t="s">
+      <c r="BI6" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="BD6" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="BE6" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BF6" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BG6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="BH6" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="BI6" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:61">
@@ -2103,184 +2085,184 @@
         <v>140</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="J8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>161</v>
-      </c>
       <c r="L8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="M8" s="5" t="s">
-        <v>161</v>
-      </c>
       <c r="N8" s="5" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="Q8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="T8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="U8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="V8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="T8" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>161</v>
-      </c>
       <c r="W8" s="5" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="X8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="Y8" s="5" t="s">
+      <c r="AA8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="Z8" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA8" s="5" t="s">
+      <c r="AN8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AB8" s="5" t="s">
+      <c r="AO8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AP8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AC8" s="5" t="s">
+      <c r="AQ8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AD8" s="5" t="s">
+      <c r="AS8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AE8" s="5" t="s">
+      <c r="AU8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AV8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AX8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AY8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AZ8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="BA8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AF8" s="5" t="s">
+      <c r="BB8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="BC8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="BD8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AG8" s="5" t="s">
+      <c r="BE8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AH8" s="5" t="s">
+      <c r="BF8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AI8" s="5" t="s">
+      <c r="BG8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AJ8" s="5" t="s">
+      <c r="BH8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AK8" s="5" t="s">
+      <c r="BI8" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="AL8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AM8" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN8" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="AO8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AP8" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="AQ8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AR8" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="AS8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AT8" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="AU8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AV8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AX8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AY8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AZ8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="BA8" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="BB8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="BC8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD8" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="BE8" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="BF8" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="BG8" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="BH8" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="BI8" s="5" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:61">
@@ -80182,13 +80164,13 @@
         <v>85687</v>
       </c>
       <c r="E430" s="2">
-        <v>0</v>
+        <v>14777.2</v>
       </c>
       <c r="F430" s="2">
-        <v>0</v>
+        <v>18576.3</v>
       </c>
       <c r="G430" s="2">
-        <v>0</v>
+        <v>5175.6000000000004</v>
       </c>
       <c r="H430" s="2">
         <v>9500</v>
@@ -80197,13 +80179,13 @@
         <v>3108</v>
       </c>
       <c r="J430" s="2">
-        <v>0</v>
+        <v>11738.270699999999</v>
       </c>
       <c r="K430" s="2">
         <v>7218</v>
       </c>
       <c r="L430" s="2">
-        <v>0</v>
+        <v>6986.6389600000002</v>
       </c>
       <c r="M430" s="2">
         <v>78277</v>
@@ -80218,13 +80200,13 @@
         <v>7229</v>
       </c>
       <c r="Q430" s="2">
-        <v>0</v>
+        <v>2077.36915</v>
       </c>
       <c r="R430" s="2">
-        <v>0</v>
+        <v>7809.3893500000004</v>
       </c>
       <c r="S430" s="2">
-        <v>0</v>
+        <v>6190.2933300000004</v>
       </c>
       <c r="T430" s="2">
         <v>167068</v>
@@ -80239,49 +80221,49 @@
         <v>483884</v>
       </c>
       <c r="X430" s="2">
-        <v>0</v>
+        <v>31745.102299999999</v>
       </c>
       <c r="Y430" s="2">
-        <v>0</v>
+        <v>179111.7</v>
       </c>
       <c r="Z430" s="2">
         <v>24115</v>
       </c>
       <c r="AA430" s="2">
-        <v>0</v>
+        <v>376015</v>
       </c>
       <c r="AB430" s="2">
-        <v>0</v>
+        <v>1435212</v>
       </c>
       <c r="AC430" s="2">
-        <v>0</v>
+        <v>77269</v>
       </c>
       <c r="AD430" s="2">
-        <v>0</v>
+        <v>283066.5</v>
       </c>
       <c r="AE430" s="2">
-        <v>0</v>
+        <v>712842.6</v>
       </c>
       <c r="AF430" s="2">
-        <v>0</v>
+        <v>324316</v>
       </c>
       <c r="AG430" s="2">
-        <v>0</v>
+        <v>104813</v>
       </c>
       <c r="AH430" s="2">
-        <v>0</v>
+        <v>219503</v>
       </c>
       <c r="AI430" s="2">
-        <v>0</v>
+        <v>12.855</v>
       </c>
       <c r="AJ430" s="2">
-        <v>0</v>
+        <v>757</v>
       </c>
       <c r="AK430" s="2">
-        <v>0</v>
+        <v>213932.25115</v>
       </c>
       <c r="AL430" s="2">
-        <v>0</v>
+        <v>3692.3170100000002</v>
       </c>
       <c r="AM430" s="2">
         <v>2810.6</v>
@@ -80290,49 +80272,49 @@
         <v>1148.9000000000001</v>
       </c>
       <c r="AO430" s="2">
-        <v>0</v>
+        <v>14418.07242</v>
       </c>
       <c r="AP430" s="2">
         <v>282</v>
       </c>
       <c r="AQ430" s="2">
-        <v>0</v>
+        <v>2059.0005500000002</v>
       </c>
       <c r="AR430" s="2">
         <v>39530000</v>
       </c>
       <c r="AS430" s="2">
-        <v>0</v>
+        <v>32311.118699999999</v>
       </c>
       <c r="AT430" s="2">
         <v>30554</v>
       </c>
       <c r="AU430" s="2">
-        <v>0</v>
+        <v>18576.3881</v>
       </c>
       <c r="AV430" s="2">
-        <v>0</v>
+        <v>24237.3704</v>
       </c>
       <c r="AW430" s="2">
-        <v>0</v>
+        <v>9588.5133000000005</v>
       </c>
       <c r="AX430" s="2">
-        <v>0</v>
+        <v>10458.175800000001</v>
       </c>
       <c r="AY430" s="2">
-        <v>0</v>
+        <v>2488.4268999999999</v>
       </c>
       <c r="AZ430" s="2">
-        <v>0</v>
+        <v>396.53629999999998</v>
       </c>
       <c r="BA430" s="2">
         <v>111691</v>
       </c>
       <c r="BB430" s="2">
-        <v>0</v>
+        <v>134.9</v>
       </c>
       <c r="BC430" s="2">
-        <v>0</v>
+        <v>1576</v>
       </c>
       <c r="BD430" s="2">
         <v>61855</v>

--- a/inst/extdata/monthly industry stats.xlsx
+++ b/inst/extdata/monthly industry stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3407089-E531-46C9-B97C-C3F32F0F96E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C908CA9E-21B3-402F-87E9-5183129835C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="14400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_ Raw Coal_ YTD" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="161">
   <si>
     <t>Name</t>
   </si>
@@ -482,34 +482,13 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1989-01:2024-11</t>
-  </si>
-  <si>
     <t>1990-01:2024-11</t>
   </si>
   <si>
     <t>1989-02:2024-11</t>
   </si>
   <si>
-    <t>2015-12:2024-11</t>
-  </si>
-  <si>
-    <t>2016-02:2024-11</t>
-  </si>
-  <si>
     <t>2010-01:2024-11</t>
-  </si>
-  <si>
-    <t>2009-09:2024-11</t>
-  </si>
-  <si>
-    <t>2016-05:2024-11</t>
-  </si>
-  <si>
-    <t>2001-01:2024-11</t>
-  </si>
-  <si>
-    <t>2024-12-16</t>
   </si>
   <si>
     <t>1997-01:2024-11</t>
@@ -531,6 +510,36 @@
   </si>
   <si>
     <t>2024-12-18</t>
+  </si>
+  <si>
+    <t>1989-01:2024-12</t>
+  </si>
+  <si>
+    <t>1990-01:2024-12</t>
+  </si>
+  <si>
+    <t>1989-02:2024-12</t>
+  </si>
+  <si>
+    <t>2015-12:2024-12</t>
+  </si>
+  <si>
+    <t>2016-02:2024-12</t>
+  </si>
+  <si>
+    <t>2010-01:2024-12</t>
+  </si>
+  <si>
+    <t>2009-09:2024-12</t>
+  </si>
+  <si>
+    <t>2016-05:2024-12</t>
+  </si>
+  <si>
+    <t>2001-01:2024-12</t>
+  </si>
+  <si>
+    <t>2025-01-17</t>
   </si>
 </sst>
 </file>
@@ -931,9 +940,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI430"/>
+  <dimension ref="A1:BI431"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G419" sqref="G419"/>
     </sheetView>
   </sheetViews>
@@ -941,6 +950,7 @@
   <cols>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -1715,184 +1725,184 @@
         <v>137</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF6" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="AG6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI6" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="AJ6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AP6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV6" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AW6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY6" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ6" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="BA6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="BB6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="BC6" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG6" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AH6" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AI6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AJ6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AK6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AN6" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO6" s="4" t="s">
+      <c r="BD6" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="BE6" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AP6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AQ6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AR6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AS6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AT6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AV6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AW6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AY6" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AZ6" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="BA6" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="BB6" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="BC6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="BD6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="BE6" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="BF6" s="4" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="BG6" s="4" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="BH6" s="4" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="BI6" s="4" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:61">
@@ -2085,184 +2095,184 @@
         <v>140</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="H8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="K8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="K8" s="5" t="s">
+      <c r="M8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="M8" s="5" t="s">
+      <c r="R8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="S8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="T8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="X8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="Y8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="Q8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="T8" s="5" t="s">
+      <c r="Z8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="U8" s="5" t="s">
+      <c r="AB8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="V8" s="5" t="s">
+      <c r="AC8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="W8" s="5" t="s">
+      <c r="AD8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="X8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z8" s="5" t="s">
+      <c r="AE8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AA8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE8" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="AF8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AG8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AH8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AI8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AJ8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AK8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AL8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AM8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AN8" s="5" t="s">
+      <c r="AP8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AO8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="AP8" s="5" t="s">
+      <c r="AR8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AQ8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR8" s="5" t="s">
+      <c r="AT8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AU8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AS8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="AT8" s="5" t="s">
+      <c r="AV8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AU8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="AV8" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="AW8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AX8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AY8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AZ8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="BA8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="BB8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="BB8" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="BC8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="BD8" s="5" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="BE8" s="5" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="BF8" s="5" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="BG8" s="5" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="BH8" s="5" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="BI8" s="5" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:61">
@@ -80333,6 +80343,191 @@
       </c>
       <c r="BI430" s="2">
         <v>4025</v>
+      </c>
+    </row>
+    <row r="431" spans="1:61">
+      <c r="A431" s="3">
+        <v>45657</v>
+      </c>
+      <c r="B431" s="2">
+        <v>475896</v>
+      </c>
+      <c r="C431" s="2">
+        <v>48927</v>
+      </c>
+      <c r="D431" s="2">
+        <v>94181</v>
+      </c>
+      <c r="E431" s="2">
+        <v>0</v>
+      </c>
+      <c r="F431" s="2">
+        <v>0</v>
+      </c>
+      <c r="G431" s="2">
+        <v>0</v>
+      </c>
+      <c r="H431" s="2">
+        <v>10370</v>
+      </c>
+      <c r="I431" s="2">
+        <v>3493</v>
+      </c>
+      <c r="J431" s="2">
+        <v>0</v>
+      </c>
+      <c r="K431" s="2">
+        <v>7911</v>
+      </c>
+      <c r="L431" s="2">
+        <v>0</v>
+      </c>
+      <c r="M431" s="2">
+        <v>85174</v>
+      </c>
+      <c r="N431" s="2">
+        <v>100509</v>
+      </c>
+      <c r="O431" s="2">
+        <v>139967</v>
+      </c>
+      <c r="P431" s="2">
+        <v>7919</v>
+      </c>
+      <c r="Q431" s="2">
+        <v>0</v>
+      </c>
+      <c r="R431" s="2">
+        <v>0</v>
+      </c>
+      <c r="S431" s="2">
+        <v>0</v>
+      </c>
+      <c r="T431" s="2">
+        <v>182524</v>
+      </c>
+      <c r="U431" s="2">
+        <v>100042</v>
+      </c>
+      <c r="V431" s="2">
+        <v>70</v>
+      </c>
+      <c r="W431" s="2">
+        <v>556369</v>
+      </c>
+      <c r="X431" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y431" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z431" s="2">
+        <v>28434</v>
+      </c>
+      <c r="AA431" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB431" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC431" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD431" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE431" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF431" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG431" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH431" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI431" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ431" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK431" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL431" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM431" s="2">
+        <v>3155.9</v>
+      </c>
+      <c r="AN431" s="2">
+        <v>1316.8</v>
+      </c>
+      <c r="AO431" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP431" s="2">
+        <v>306</v>
+      </c>
+      <c r="AQ431" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR431" s="2">
+        <v>45140000</v>
+      </c>
+      <c r="AS431" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT431" s="2">
+        <v>33913</v>
+      </c>
+      <c r="AU431" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV431" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW431" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX431" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY431" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ431" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA431" s="2">
+        <v>124666</v>
+      </c>
+      <c r="BB431" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC431" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD431" s="2">
+        <v>68495</v>
+      </c>
+      <c r="BE431" s="2">
+        <v>63438</v>
+      </c>
+      <c r="BF431" s="2">
+        <v>12742</v>
+      </c>
+      <c r="BG431" s="2">
+        <v>9360</v>
+      </c>
+      <c r="BH431" s="2">
+        <v>4191</v>
+      </c>
+      <c r="BI431" s="2">
+        <v>4449</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/monthly industry stats.xlsx
+++ b/inst/extdata/monthly industry stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C908CA9E-21B3-402F-87E9-5183129835C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B2BD96-31F4-4B27-A2BF-B0A09DC28EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="14400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_ Raw Coal_ YTD" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="158">
   <si>
     <t>Name</t>
   </si>
@@ -482,36 +482,6 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1990-01:2024-11</t>
-  </si>
-  <si>
-    <t>1989-02:2024-11</t>
-  </si>
-  <si>
-    <t>2010-01:2024-11</t>
-  </si>
-  <si>
-    <t>1997-01:2024-11</t>
-  </si>
-  <si>
-    <t>2009-01:2024-11</t>
-  </si>
-  <si>
-    <t>2001-12:2024-11</t>
-  </si>
-  <si>
-    <t>1992-01:2024-11</t>
-  </si>
-  <si>
-    <t>2000-05:2024-11</t>
-  </si>
-  <si>
-    <t>2015-02:2024-11</t>
-  </si>
-  <si>
-    <t>2024-12-18</t>
-  </si>
-  <si>
     <t>1989-01:2024-12</t>
   </si>
   <si>
@@ -540,6 +510,27 @@
   </si>
   <si>
     <t>2025-01-17</t>
+  </si>
+  <si>
+    <t>1997-01:2024-12</t>
+  </si>
+  <si>
+    <t>2009-01:2024-12</t>
+  </si>
+  <si>
+    <t>2001-12:2024-12</t>
+  </si>
+  <si>
+    <t>1992-01:2024-12</t>
+  </si>
+  <si>
+    <t>2000-05:2024-12</t>
+  </si>
+  <si>
+    <t>2015-02:2024-12</t>
+  </si>
+  <si>
+    <t>2025-01-20</t>
   </si>
 </sst>
 </file>
@@ -1725,184 +1716,184 @@
         <v>137</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="K6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG6" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="AH6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO6" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="AP6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR6" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="AS6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV6" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="W6" s="4" t="s">
+      <c r="AW6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AX6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AY6" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="X6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG6" s="4" t="s">
+      <c r="AZ6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="BA6" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="AH6" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AK6" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AN6" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO6" s="4" t="s">
+      <c r="BB6" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="BC6" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="AP6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AQ6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AR6" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AT6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AU6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV6" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AW6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AX6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AY6" s="4" t="s">
+      <c r="BD6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BF6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BG6" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="AZ6" s="4" t="s">
+      <c r="BH6" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="BA6" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="BB6" s="4" t="s">
+      <c r="BI6" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="BC6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="BD6" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="BE6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="BG6" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="BH6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="BI6" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:61">
@@ -2095,184 +2086,184 @@
         <v>140</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="J8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="J8" s="5" t="s">
+      <c r="L8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="L8" s="5" t="s">
+      <c r="N8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="M8" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="O8" s="5" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="Q8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="T8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="U8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="V8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="T8" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="W8" s="5" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="X8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="Y8" s="5" t="s">
+      <c r="AA8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="Z8" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA8" s="5" t="s">
+      <c r="AN8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AB8" s="5" t="s">
+      <c r="AO8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AP8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AC8" s="5" t="s">
+      <c r="AQ8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AD8" s="5" t="s">
+      <c r="AS8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AE8" s="5" t="s">
+      <c r="AU8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AV8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AX8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AY8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AZ8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="BA8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AF8" s="5" t="s">
+      <c r="BB8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="BC8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="BD8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AG8" s="5" t="s">
+      <c r="BE8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AH8" s="5" t="s">
+      <c r="BF8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AI8" s="5" t="s">
+      <c r="BG8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AJ8" s="5" t="s">
+      <c r="BH8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AK8" s="5" t="s">
+      <c r="BI8" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="AL8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AM8" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="AN8" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AP8" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="AQ8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AR8" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="AS8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AT8" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="AU8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AV8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AX8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AY8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AZ8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="BA8" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="BB8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="BC8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD8" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="BE8" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="BF8" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="BG8" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="BH8" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="BI8" s="5" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:61">
@@ -80165,13 +80156,13 @@
         <v>45626</v>
       </c>
       <c r="B430" s="2">
-        <v>432194</v>
+        <v>432193.8</v>
       </c>
       <c r="C430" s="2">
-        <v>44671</v>
+        <v>44670.9</v>
       </c>
       <c r="D430" s="2">
-        <v>85687</v>
+        <v>85687.5</v>
       </c>
       <c r="E430" s="2">
         <v>14777.2</v>
@@ -80183,31 +80174,31 @@
         <v>5175.6000000000004</v>
       </c>
       <c r="H430" s="2">
-        <v>9500</v>
+        <v>9499.7809699999998</v>
       </c>
       <c r="I430" s="2">
-        <v>3108</v>
+        <v>3108.38789</v>
       </c>
       <c r="J430" s="2">
         <v>11738.270699999999</v>
       </c>
       <c r="K430" s="2">
-        <v>7218</v>
+        <v>7218.1442699999998</v>
       </c>
       <c r="L430" s="2">
         <v>6986.6389600000002</v>
       </c>
       <c r="M430" s="2">
-        <v>78277</v>
+        <v>78276.79045</v>
       </c>
       <c r="N430" s="2">
-        <v>92919</v>
+        <v>92918.981050000002</v>
       </c>
       <c r="O430" s="2">
-        <v>128304</v>
+        <v>128303.88068</v>
       </c>
       <c r="P430" s="2">
-        <v>7229</v>
+        <v>7228.7672199999997</v>
       </c>
       <c r="Q430" s="2">
         <v>2077.36915</v>
@@ -80219,13 +80210,13 @@
         <v>6190.2933300000004</v>
       </c>
       <c r="T430" s="2">
-        <v>167068</v>
+        <v>167067.54686</v>
       </c>
       <c r="U430" s="2">
-        <v>90973</v>
+        <v>90973.238580000005</v>
       </c>
       <c r="V430" s="2">
-        <v>61</v>
+        <v>61.189</v>
       </c>
       <c r="W430" s="2">
         <v>483884</v>
@@ -80237,7 +80228,7 @@
         <v>179111.7</v>
       </c>
       <c r="Z430" s="2">
-        <v>24115</v>
+        <v>24115.28584</v>
       </c>
       <c r="AA430" s="2">
         <v>376015</v>
@@ -80276,7 +80267,7 @@
         <v>3692.3170100000002</v>
       </c>
       <c r="AM430" s="2">
-        <v>2810.6</v>
+        <v>2810.6446000000001</v>
       </c>
       <c r="AN430" s="2">
         <v>1148.9000000000001</v>
@@ -80285,19 +80276,19 @@
         <v>14418.07242</v>
       </c>
       <c r="AP430" s="2">
-        <v>282</v>
+        <v>282.10395999999997</v>
       </c>
       <c r="AQ430" s="2">
         <v>2059.0005500000002</v>
       </c>
       <c r="AR430" s="2">
-        <v>39530000</v>
+        <v>39526928</v>
       </c>
       <c r="AS430" s="2">
         <v>32311.118699999999</v>
       </c>
       <c r="AT430" s="2">
-        <v>30554</v>
+        <v>30553.541399999998</v>
       </c>
       <c r="AU430" s="2">
         <v>18576.3881</v>
@@ -80327,22 +80318,22 @@
         <v>1576</v>
       </c>
       <c r="BD430" s="2">
-        <v>61855</v>
+        <v>61854.9</v>
       </c>
       <c r="BE430" s="2">
-        <v>57442</v>
+        <v>57441.7</v>
       </c>
       <c r="BF430" s="2">
-        <v>11926</v>
+        <v>11926.3</v>
       </c>
       <c r="BG430" s="2">
-        <v>8438</v>
+        <v>8437.7000000000007</v>
       </c>
       <c r="BH430" s="2">
-        <v>3856</v>
+        <v>3856.4371999999998</v>
       </c>
       <c r="BI430" s="2">
-        <v>4025</v>
+        <v>4025.2</v>
       </c>
     </row>
     <row r="431" spans="1:61">
@@ -80359,13 +80350,13 @@
         <v>94181</v>
       </c>
       <c r="E431" s="2">
-        <v>0</v>
+        <v>16011.2</v>
       </c>
       <c r="F431" s="2">
-        <v>0</v>
+        <v>20340.2</v>
       </c>
       <c r="G431" s="2">
-        <v>0</v>
+        <v>5565.7</v>
       </c>
       <c r="H431" s="2">
         <v>10370</v>
@@ -80374,13 +80365,13 @@
         <v>3493</v>
       </c>
       <c r="J431" s="2">
-        <v>0</v>
+        <v>12751.63132</v>
       </c>
       <c r="K431" s="2">
         <v>7911</v>
       </c>
       <c r="L431" s="2">
-        <v>0</v>
+        <v>7707.6463800000001</v>
       </c>
       <c r="M431" s="2">
         <v>85174</v>
@@ -80395,13 +80386,13 @@
         <v>7919</v>
       </c>
       <c r="Q431" s="2">
-        <v>0</v>
+        <v>2350.3127100000002</v>
       </c>
       <c r="R431" s="2">
-        <v>0</v>
+        <v>8552.2270200000003</v>
       </c>
       <c r="S431" s="2">
-        <v>0</v>
+        <v>6783.1079</v>
       </c>
       <c r="T431" s="2">
         <v>182524</v>
@@ -80416,49 +80407,49 @@
         <v>556369</v>
       </c>
       <c r="X431" s="2">
-        <v>0</v>
+        <v>35321.698600000003</v>
       </c>
       <c r="Y431" s="2">
-        <v>0</v>
+        <v>203805.2</v>
       </c>
       <c r="Z431" s="2">
         <v>28434</v>
       </c>
       <c r="AA431" s="2">
-        <v>0</v>
+        <v>414015</v>
       </c>
       <c r="AB431" s="2">
-        <v>0</v>
+        <v>1632538</v>
       </c>
       <c r="AC431" s="2">
-        <v>0</v>
+        <v>83162</v>
       </c>
       <c r="AD431" s="2">
-        <v>0</v>
+        <v>321992.59999999998</v>
       </c>
       <c r="AE431" s="2">
-        <v>0</v>
+        <v>787700.5</v>
       </c>
       <c r="AF431" s="2">
-        <v>0</v>
+        <v>348370</v>
       </c>
       <c r="AG431" s="2">
-        <v>0</v>
+        <v>111833</v>
       </c>
       <c r="AH431" s="2">
-        <v>0</v>
+        <v>236537</v>
       </c>
       <c r="AI431" s="2">
-        <v>0</v>
+        <v>14.128399999999999</v>
       </c>
       <c r="AJ431" s="2">
-        <v>0</v>
+        <v>947</v>
       </c>
       <c r="AK431" s="2">
-        <v>0</v>
+        <v>237766.77648</v>
       </c>
       <c r="AL431" s="2">
-        <v>0</v>
+        <v>4011.3519999999999</v>
       </c>
       <c r="AM431" s="2">
         <v>3155.9</v>
@@ -80467,49 +80458,49 @@
         <v>1316.8</v>
       </c>
       <c r="AO431" s="2">
-        <v>0</v>
+        <v>15846.890579999999</v>
       </c>
       <c r="AP431" s="2">
         <v>306</v>
       </c>
       <c r="AQ431" s="2">
-        <v>0</v>
+        <v>2277.9014900000002</v>
       </c>
       <c r="AR431" s="2">
         <v>45140000</v>
       </c>
       <c r="AS431" s="2">
-        <v>0</v>
+        <v>36010.426599999999</v>
       </c>
       <c r="AT431" s="2">
         <v>33913</v>
       </c>
       <c r="AU431" s="2">
-        <v>0</v>
+        <v>20745.392100000001</v>
       </c>
       <c r="AV431" s="2">
-        <v>0</v>
+        <v>26598.4421</v>
       </c>
       <c r="AW431" s="2">
-        <v>0</v>
+        <v>10395.737999999999</v>
       </c>
       <c r="AX431" s="2">
-        <v>0</v>
+        <v>11736.5126</v>
       </c>
       <c r="AY431" s="2">
-        <v>0</v>
+        <v>2761.4884000000002</v>
       </c>
       <c r="AZ431" s="2">
-        <v>0</v>
+        <v>455.77289999999999</v>
       </c>
       <c r="BA431" s="2">
         <v>124666</v>
       </c>
       <c r="BB431" s="2">
-        <v>0</v>
+        <v>149.19999999999999</v>
       </c>
       <c r="BC431" s="2">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="BD431" s="2">
         <v>68495</v>

--- a/inst/extdata/monthly industry stats.xlsx
+++ b/inst/extdata/monthly industry stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B2BD96-31F4-4B27-A2BF-B0A09DC28EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3239C6F5-5789-4C3E-9E44-62FD9ADA49A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="159">
   <si>
     <t>Name</t>
   </si>
@@ -532,6 +532,9 @@
   <si>
     <t>2025-01-20</t>
   </si>
+  <si>
+    <t>2025-01-21</t>
+  </si>
 </sst>
 </file>
 
@@ -958,8 +961,7 @@
     <col min="37" max="37" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="48" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="50" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="56" max="58" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -2086,13 +2088,13 @@
         <v>140</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>157</v>
@@ -2104,31 +2106,31 @@
         <v>157</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>157</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>157</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>157</v>
@@ -2140,13 +2142,13 @@
         <v>157</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="W8" s="5" t="s">
         <v>150</v>
@@ -2158,7 +2160,7 @@
         <v>157</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="AA8" s="5" t="s">
         <v>157</v>
@@ -2197,7 +2199,7 @@
         <v>157</v>
       </c>
       <c r="AM8" s="5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="AN8" s="5" t="s">
         <v>150</v>
@@ -2206,19 +2208,19 @@
         <v>157</v>
       </c>
       <c r="AP8" s="5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="AQ8" s="5" t="s">
         <v>157</v>
       </c>
       <c r="AR8" s="5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="AS8" s="5" t="s">
         <v>157</v>
       </c>
       <c r="AT8" s="5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="AU8" s="5" t="s">
         <v>157</v>
@@ -2248,19 +2250,19 @@
         <v>157</v>
       </c>
       <c r="BD8" s="5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="BE8" s="5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="BF8" s="5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="BG8" s="5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="BH8" s="5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="BI8" s="5" t="s">
         <v>150</v>
@@ -80341,13 +80343,13 @@
         <v>45657</v>
       </c>
       <c r="B431" s="2">
-        <v>475896</v>
+        <v>475896.2</v>
       </c>
       <c r="C431" s="2">
-        <v>48927</v>
+        <v>48927.199999999997</v>
       </c>
       <c r="D431" s="2">
-        <v>94181</v>
+        <v>94180.6</v>
       </c>
       <c r="E431" s="2">
         <v>16011.2</v>
@@ -80359,31 +80361,31 @@
         <v>5565.7</v>
       </c>
       <c r="H431" s="2">
-        <v>10370</v>
+        <v>10369.915059999999</v>
       </c>
       <c r="I431" s="2">
-        <v>3493</v>
+        <v>3493.3741100000002</v>
       </c>
       <c r="J431" s="2">
         <v>12751.63132</v>
       </c>
       <c r="K431" s="2">
-        <v>7911</v>
+        <v>7910.8305600000003</v>
       </c>
       <c r="L431" s="2">
         <v>7707.6463800000001</v>
       </c>
       <c r="M431" s="2">
-        <v>85174</v>
+        <v>85173.670670000007</v>
       </c>
       <c r="N431" s="2">
-        <v>100509</v>
+        <v>100509.12570999999</v>
       </c>
       <c r="O431" s="2">
-        <v>139967</v>
+        <v>139967.41815000001</v>
       </c>
       <c r="P431" s="2">
-        <v>7919</v>
+        <v>7918.7841200000003</v>
       </c>
       <c r="Q431" s="2">
         <v>2350.3127100000002</v>
@@ -80395,13 +80397,13 @@
         <v>6783.1079</v>
       </c>
       <c r="T431" s="2">
-        <v>182524</v>
+        <v>182523.70134</v>
       </c>
       <c r="U431" s="2">
-        <v>100042</v>
+        <v>100041.69214</v>
       </c>
       <c r="V431" s="2">
-        <v>70</v>
+        <v>69.451099999999997</v>
       </c>
       <c r="W431" s="2">
         <v>556369</v>
@@ -80413,7 +80415,7 @@
         <v>203805.2</v>
       </c>
       <c r="Z431" s="2">
-        <v>28434</v>
+        <v>28433.868330000001</v>
       </c>
       <c r="AA431" s="2">
         <v>414015</v>
@@ -80452,7 +80454,7 @@
         <v>4011.3519999999999</v>
       </c>
       <c r="AM431" s="2">
-        <v>3155.9</v>
+        <v>3155.933</v>
       </c>
       <c r="AN431" s="2">
         <v>1316.8</v>
@@ -80461,19 +80463,19 @@
         <v>15846.890579999999</v>
       </c>
       <c r="AP431" s="2">
-        <v>306</v>
+        <v>306.33253999999999</v>
       </c>
       <c r="AQ431" s="2">
         <v>2277.9014900000002</v>
       </c>
       <c r="AR431" s="2">
-        <v>45140000</v>
+        <v>45142296.5</v>
       </c>
       <c r="AS431" s="2">
         <v>36010.426599999999</v>
       </c>
       <c r="AT431" s="2">
-        <v>33913</v>
+        <v>33912.9035</v>
       </c>
       <c r="AU431" s="2">
         <v>20745.392100000001</v>
@@ -80503,19 +80505,19 @@
         <v>1868</v>
       </c>
       <c r="BD431" s="2">
-        <v>68495</v>
+        <v>68495.3</v>
       </c>
       <c r="BE431" s="2">
-        <v>63438</v>
+        <v>63437.7</v>
       </c>
       <c r="BF431" s="2">
-        <v>12742</v>
+        <v>12742.5</v>
       </c>
       <c r="BG431" s="2">
-        <v>9360</v>
+        <v>9360.5</v>
       </c>
       <c r="BH431" s="2">
-        <v>4191</v>
+        <v>4190.8499000000002</v>
       </c>
       <c r="BI431" s="2">
         <v>4449</v>
